--- a/reference/validate.xlsx
+++ b/reference/validate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zebangli/Desktop/REPO/rent-or-buy.homes/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8FB4E1-E87C-0B45-8FF7-3F4FCB38D28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030BE34B-6058-AA4F-AB61-159377DFB3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18780" yWindow="500" windowWidth="41380" windowHeight="33340" xr2:uid="{4FAA1B2D-A5BE-A648-AE57-B290D09E19E2}"/>
+    <workbookView xWindow="23960" yWindow="500" windowWidth="36200" windowHeight="33340" xr2:uid="{4FAA1B2D-A5BE-A648-AE57-B290D09E19E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Property Price</t>
   </si>
@@ -565,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B465DB23-694F-FD4C-830D-04C78C0B4A5A}">
-  <dimension ref="B3:AB383"/>
+  <dimension ref="B3:AC383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -577,17 +577,20 @@
     <col min="2" max="2" width="24.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="3"/>
     <col min="4" max="4" width="10.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="3.83203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="24.83203125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="3"/>
+    <col min="7" max="7" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="3.83203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="5.83203125" style="3" customWidth="1"/>
     <col min="10" max="11" width="12.83203125" style="3" customWidth="1"/>
     <col min="12" max="18" width="12.83203125" style="3" customWidth="1" outlineLevel="1"/>
     <col min="19" max="27" width="12.83203125" style="3" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="3"/>
+    <col min="28" max="28" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.83203125" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,8 +663,11 @@
       <c r="AB3" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -688,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -761,20 +767,31 @@
         <v>1388321.850681789</v>
       </c>
       <c r="X5" s="2">
-        <f>W5-Z5-$C$10*$O$5</f>
+        <f>W5-Z5-$C$10*O5</f>
         <v>1257071.850681789</v>
       </c>
       <c r="Y5" s="2">
-        <f>O5-Q5-$D$4</f>
-        <v>138321.85068178899</v>
-      </c>
-      <c r="Z5" s="2"/>
+        <f>O5-$C$3</f>
+        <v>125000</v>
+      </c>
+      <c r="Z5" s="2">
+        <f>MAX(Y5-$C$18, 0)*$C$17</f>
+        <v>0</v>
+      </c>
       <c r="AA5" s="2">
         <f>V5</f>
         <v>1537133.0412482666</v>
       </c>
-    </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB5" s="2">
+        <f>AA5-AC5*$G$6</f>
+        <v>1507058.6991368874</v>
+      </c>
+      <c r="AC5" s="2">
+        <f>V5-SUMIF($T$5:$T5,"&gt;=0",$T$5:$T5)</f>
+        <v>200495.61407586071</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -846,18 +863,32 @@
         <f t="shared" ref="W6:W34" si="10">P6+U6</f>
         <v>1533821.2743378689</v>
       </c>
-      <c r="X6" s="2"/>
+      <c r="X6" s="2">
+        <f t="shared" ref="X6:X34" si="11">W6-Z6-$C$10*O6</f>
+        <v>1396008.7743378689</v>
+      </c>
       <c r="Y6" s="2">
-        <f t="shared" ref="Y6:Y34" si="11">O6-Q6-$D$4</f>
-        <v>283821.2743378689</v>
-      </c>
-      <c r="Z6" s="2"/>
+        <f t="shared" ref="Y6:Y34" si="12">O6-$C$3</f>
+        <v>256250</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" ref="Z6:Z34" si="13">MAX(Y6-$C$18, 0)*$C$17</f>
+        <v>0</v>
+      </c>
       <c r="AA6" s="2">
-        <f t="shared" ref="AA6:AA34" si="12">V6</f>
+        <f t="shared" ref="AA6:AA34" si="14">V6</f>
         <v>1807763.2988246775</v>
       </c>
-    </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB6" s="2">
+        <f t="shared" ref="AB6:AB34" si="15">AA6-AC6*$G$6</f>
+        <v>1742319.6747797721</v>
+      </c>
+      <c r="AC6" s="2">
+        <f>V6-SUMIF($T$5:$T6,"&gt;=0",$T$5:$T6)</f>
+        <v>436290.82696603588</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -916,25 +947,39 @@
         <v>0</v>
       </c>
       <c r="V7" s="2">
-        <f t="shared" ref="V7:V34" si="13">(V6+IF(T7&gt;=0,T7,0))*(1+$G$5)</f>
+        <f t="shared" ref="V7:V34" si="16">(V6+IF(T7&gt;=0,T7,0))*(1+$G$5)</f>
         <v>2116816.7431363068</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="10"/>
         <v>1686875.3559604594</v>
       </c>
-      <c r="X7" s="2"/>
+      <c r="X7" s="2">
+        <f t="shared" si="11"/>
+        <v>1542172.2309604594</v>
+      </c>
       <c r="Y7" s="2">
-        <f t="shared" si="11"/>
-        <v>436875.35596045945</v>
-      </c>
-      <c r="Z7" s="2"/>
+        <f t="shared" si="12"/>
+        <v>394062.50000000047</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="AA7" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2116816.7431363068</v>
       </c>
-    </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2">
+        <f t="shared" si="15"/>
+        <v>2009957.1393343867</v>
+      </c>
+      <c r="AC7" s="2">
+        <f>V7-SUMIF($T$5:$T7,"&gt;=0",$T$5:$T7)</f>
+        <v>712397.35867946688</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="I8" s="3">
         <v>4</v>
       </c>
@@ -987,25 +1032,39 @@
         <v>0</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2469953.6594261383</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="10"/>
         <v>1847881.3024615208</v>
       </c>
-      <c r="X8" s="2"/>
+      <c r="X8" s="2">
+        <f t="shared" si="11"/>
+        <v>1690128.1774615208</v>
+      </c>
       <c r="Y8" s="2">
-        <f t="shared" si="11"/>
-        <v>597881.30246152077</v>
-      </c>
-      <c r="Z8" s="2"/>
+        <f t="shared" si="12"/>
+        <v>538765.625</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="13"/>
+        <v>5814.84375</v>
+      </c>
       <c r="AA8" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2469953.6594261383</v>
       </c>
-    </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB8" s="2">
+        <f t="shared" si="15"/>
+        <v>2314768.8753310982</v>
+      </c>
+      <c r="AC8" s="2">
+        <f>V8-SUMIF($T$5:$T8,"&gt;=0",$T$5:$T8)</f>
+        <v>1034565.227300267</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1064,25 +1123,39 @@
         <v>0</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2873678.5903234058</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" si="10"/>
         <v>2017257.5370340005</v>
       </c>
-      <c r="X9" s="2"/>
+      <c r="X9" s="2">
+        <f t="shared" si="11"/>
+        <v>1829116.7557840005</v>
+      </c>
       <c r="Y9" s="2">
-        <f t="shared" si="11"/>
-        <v>767257.5370340005</v>
-      </c>
-      <c r="Z9" s="2"/>
+        <f t="shared" si="12"/>
+        <v>690703.90625000047</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="13"/>
+        <v>28605.585937500069</v>
+      </c>
       <c r="AA9" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2873678.5903234058</v>
       </c>
-    </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB9" s="2">
+        <f t="shared" si="15"/>
+        <v>2662269.6598959514</v>
+      </c>
+      <c r="AC9" s="2">
+        <f>V9-SUMIF($T$5:$T9,"&gt;=0",$T$5:$T9)</f>
+        <v>1409392.8695163629</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1141,25 +1214,39 @@
         <v>0</v>
       </c>
       <c r="V10" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3335466.7612389508</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="10"/>
         <v>2195444.854376859</v>
       </c>
-      <c r="X10" s="2"/>
+      <c r="X10" s="2">
+        <f t="shared" si="11"/>
+        <v>1975397.034064359</v>
+      </c>
       <c r="Y10" s="2">
-        <f t="shared" si="11"/>
-        <v>945444.85437685903</v>
-      </c>
-      <c r="Z10" s="2"/>
+        <f t="shared" si="12"/>
+        <v>850239.1015625</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="13"/>
+        <v>52535.865234375</v>
+      </c>
       <c r="AA10" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3335466.7612389508</v>
       </c>
-    </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB10" s="2">
+        <f t="shared" si="15"/>
+        <v>3058798.6985263866</v>
+      </c>
+      <c r="AC10" s="2">
+        <f>V10-SUMIF($T$5:$T10,"&gt;=0",$T$5:$T10)</f>
+        <v>1844453.7514170951</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1218,25 +1305,39 @@
         <v>0</v>
       </c>
       <c r="V11" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3863909.4607235817</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="10"/>
         <v>2382907.6402550032</v>
       </c>
-      <c r="X11" s="2"/>
+      <c r="X11" s="2">
+        <f t="shared" si="11"/>
+        <v>2129357.4289268781</v>
+      </c>
       <c r="Y11" s="2">
-        <f t="shared" si="11"/>
-        <v>1132907.6402550032</v>
-      </c>
-      <c r="Z11" s="2"/>
+        <f t="shared" si="12"/>
+        <v>1017751.0566406255</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="13"/>
+        <v>77662.65849609382</v>
+      </c>
       <c r="AA11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3863909.4607235817</v>
       </c>
-    </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB11" s="2">
+        <f t="shared" si="15"/>
+        <v>3511643.1694316431</v>
+      </c>
+      <c r="AC11" s="2">
+        <f>V11-SUMIF($T$5:$T11,"&gt;=0",$T$5:$T11)</f>
+        <v>2348441.9419462578</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1295,25 +1396,39 @@
         <v>0</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4468881.2187178954</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="10"/>
         <v>2580135.1590685514</v>
       </c>
-      <c r="X12" s="2"/>
+      <c r="X12" s="2">
+        <f t="shared" si="11"/>
+        <v>2291407.4371740203</v>
+      </c>
       <c r="Y12" s="2">
-        <f t="shared" si="11"/>
-        <v>1330135.1590685509</v>
-      </c>
-      <c r="Z12" s="2"/>
+        <f t="shared" si="12"/>
+        <v>1193638.6094726566</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="13"/>
+        <v>104045.79142089849</v>
+      </c>
       <c r="AA12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4468881.2187178954</v>
       </c>
-    </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB12" s="2">
+        <f t="shared" si="15"/>
+        <v>4029180.294885824</v>
+      </c>
+      <c r="AC12" s="2">
+        <f>V12-SUMIF($T$5:$T12,"&gt;=0",$T$5:$T12)</f>
+        <v>2931339.4922138089</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1372,25 +1487,39 @@
         <v>0</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5161732.0520542897</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="10"/>
         <v>2787642.9133215062</v>
       </c>
-      <c r="X13" s="2"/>
+      <c r="X13" s="2">
+        <f t="shared" si="11"/>
+        <v>2461978.8053322486</v>
+      </c>
       <c r="Y13" s="2">
-        <f t="shared" si="11"/>
-        <v>1537642.9133215062</v>
-      </c>
-      <c r="Z13" s="2"/>
+        <f t="shared" si="12"/>
+        <v>1378320.5399462893</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="13"/>
+        <v>131748.0809919434</v>
+      </c>
       <c r="AA13" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5161732.0520542897</v>
       </c>
-    </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB13" s="2">
+        <f t="shared" si="15"/>
+        <v>4621040.7185081132</v>
+      </c>
+      <c r="AC13" s="2">
+        <f>V13-SUMIF($T$5:$T13,"&gt;=0",$T$5:$T13)</f>
+        <v>3604608.8903078465</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
       <c r="I14" s="7">
         <v>10</v>
       </c>
@@ -1443,26 +1572,39 @@
         <v>0</v>
       </c>
       <c r="V14" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5955508.536969264</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" si="10"/>
         <v>3005974.0791084496</v>
       </c>
-      <c r="X14" s="8"/>
+      <c r="X14" s="8">
+        <f t="shared" si="11"/>
+        <v>2641526.765719729</v>
+      </c>
       <c r="Y14" s="8">
-        <f t="shared" si="11"/>
-        <v>1755974.0791084496</v>
-      </c>
-      <c r="Z14" s="8"/>
+        <f t="shared" si="12"/>
+        <v>1572236.566943604</v>
+      </c>
+      <c r="Z14" s="8">
+        <f t="shared" si="13"/>
+        <v>160835.48504154061</v>
+      </c>
       <c r="AA14" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5955508.536969264</v>
       </c>
-      <c r="AB14" s="7"/>
-    </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB14" s="8">
+        <f t="shared" si="15"/>
+        <v>5298296.3842215147</v>
+      </c>
+      <c r="AC14" s="8">
+        <f>V14-SUMIF($T$5:$T14,"&gt;=0",$T$5:$T14)</f>
+        <v>4381414.351651663</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1521,25 +1663,39 @@
         <v>0</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6865208.0323413946</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" si="10"/>
         <v>3235701.021980295</v>
       </c>
-      <c r="X15" s="2"/>
+      <c r="X15" s="2">
+        <f t="shared" si="11"/>
+        <v>2830531.3429221381</v>
+      </c>
       <c r="Y15" s="2">
-        <f t="shared" si="11"/>
-        <v>1985701.021980295</v>
-      </c>
-      <c r="Z15" s="2"/>
+        <f t="shared" si="12"/>
+        <v>1775848.3952907845</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="13"/>
+        <v>191377.25929361768</v>
+      </c>
       <c r="AA15" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6865208.0323413946</v>
       </c>
-    </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB15" s="2">
+        <f t="shared" si="15"/>
+        <v>6073676.5920043569</v>
+      </c>
+      <c r="AC15" s="2">
+        <f>V15-SUMIF($T$5:$T15,"&gt;=0",$T$5:$T15)</f>
+        <v>5276876.2689135838</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1605,18 +1761,32 @@
         <f t="shared" si="10"/>
         <v>3477426.8978071869</v>
       </c>
-      <c r="X16" s="2"/>
+      <c r="X16" s="2">
+        <f t="shared" si="11"/>
+        <v>3029498.7347961222</v>
+      </c>
       <c r="Y16" s="2">
-        <f t="shared" si="11"/>
-        <v>2227426.8978071869</v>
-      </c>
-      <c r="Z16" s="2"/>
+        <f t="shared" si="12"/>
+        <v>1989640.8150553228</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="13"/>
+        <v>223446.12225829842</v>
+      </c>
       <c r="AA16" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7908071.0259216391</v>
       </c>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB16" s="2">
+        <f t="shared" si="15"/>
+        <v>6961816.456816569</v>
+      </c>
+      <c r="AC16" s="2">
+        <f>V16-SUMIF($T$5:$T16,"&gt;=0",$T$5:$T16)</f>
+        <v>6308363.7940337975</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1675,25 +1845,39 @@
         <v>0</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9103917.3216570206</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="10"/>
         <v>3731787.3435292491</v>
       </c>
-      <c r="X17" s="2"/>
+      <c r="X17" s="2">
+        <f t="shared" si="11"/>
+        <v>3238962.7723676311</v>
+      </c>
       <c r="Y17" s="2">
-        <f t="shared" si="11"/>
-        <v>2481787.3435292491</v>
-      </c>
-      <c r="Z17" s="2"/>
+        <f t="shared" si="12"/>
+        <v>2214122.8558080904</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="13"/>
+        <v>257118.42837121355</v>
+      </c>
       <c r="AA17" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9103917.3216570206</v>
       </c>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB17" s="2">
+        <f t="shared" si="15"/>
+        <v>7979542.6310412707</v>
+      </c>
+      <c r="AC17" s="2">
+        <f>V17-SUMIF($T$5:$T17,"&gt;=0",$T$5:$T17)</f>
+        <v>7495831.2707716683</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1752,25 +1936,39 @@
         <v>0</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>10475532.643918842</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" si="10"/>
         <v>3999452.2629750157</v>
       </c>
-      <c r="X18" s="2"/>
+      <c r="X18" s="2">
+        <f t="shared" si="11"/>
+        <v>3459486.463255317</v>
+      </c>
       <c r="Y18" s="2">
-        <f t="shared" si="11"/>
-        <v>2749452.2629750157</v>
-      </c>
-      <c r="Z18" s="2"/>
+        <f t="shared" si="12"/>
+        <v>2449828.9985984936</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="13"/>
+        <v>292474.34978977405</v>
+      </c>
       <c r="AA18" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10475532.643918842</v>
       </c>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB18" s="2">
+        <f t="shared" si="15"/>
+        <v>9146201.8798351139</v>
+      </c>
+      <c r="AC18" s="2">
+        <f>V18-SUMIF($T$5:$T18,"&gt;=0",$T$5:$T18)</f>
+        <v>8862205.0938915163</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
       <c r="I19" s="3">
         <v>15</v>
       </c>
@@ -1823,25 +2021,39 @@
         <v>0</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>12049113.22081374</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="10"/>
         <v>4281127.7132341769</v>
       </c>
-      <c r="X19" s="2"/>
+      <c r="X19" s="2">
+        <f t="shared" si="11"/>
+        <v>3691663.6235284931</v>
+      </c>
       <c r="Y19" s="2">
-        <f t="shared" si="11"/>
-        <v>3031127.7132341769</v>
-      </c>
-      <c r="Z19" s="2"/>
+        <f t="shared" si="12"/>
+        <v>2697320.4485284192</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="13"/>
+        <v>329598.06727926288</v>
+      </c>
       <c r="AA19" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>12049113.22081374</v>
       </c>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB19" s="2">
+        <f t="shared" si="15"/>
+        <v>10484038.937192352</v>
+      </c>
+      <c r="AC19" s="2">
+        <f>V19-SUMIF($T$5:$T19,"&gt;=0",$T$5:$T19)</f>
+        <v>10433828.557475917</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1901,25 +2113,39 @@
         <v>1703.1608568746828</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>13856480.2039358</v>
       </c>
       <c r="W20" s="2">
         <f t="shared" si="10"/>
         <v>4579261.0582534019</v>
       </c>
-      <c r="X20" s="2"/>
+      <c r="X20" s="2">
+        <f t="shared" si="11"/>
+        <v>3937823.764062434</v>
+      </c>
       <c r="Y20" s="2">
-        <f t="shared" si="11"/>
-        <v>3327557.8973965272</v>
-      </c>
-      <c r="Z20" s="2"/>
+        <f t="shared" si="12"/>
+        <v>2957186.4709548401</v>
+      </c>
+      <c r="Z20" s="2">
+        <f t="shared" si="13"/>
+        <v>368577.970643226</v>
+      </c>
       <c r="AA20" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>13856480.2039358</v>
       </c>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB20" s="2">
+        <f t="shared" si="15"/>
+        <v>12020300.872846104</v>
+      </c>
+      <c r="AC20" s="2">
+        <f>V20-SUMIF($T$5:$T20,"&gt;=0",$T$5:$T20)</f>
+        <v>12241195.540597977</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
       <c r="I21" s="3">
         <v>17</v>
       </c>
@@ -1972,25 +2198,39 @@
         <v>7800.4349910591918</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>15934952.234526169</v>
       </c>
       <c r="W21" s="2">
         <f t="shared" si="10"/>
         <v>4897327.7048054105</v>
       </c>
-      <c r="X21" s="2"/>
+      <c r="X21" s="2">
+        <f t="shared" si="11"/>
+        <v>4201318.5459048934</v>
+      </c>
       <c r="Y21" s="2">
-        <f t="shared" si="11"/>
-        <v>3639527.2698143516</v>
-      </c>
-      <c r="Z21" s="2"/>
+        <f t="shared" si="12"/>
+        <v>3230045.7945025833</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="13"/>
+        <v>409506.86917538749</v>
+      </c>
       <c r="AA21" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15934952.234526169</v>
       </c>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB21" s="2">
+        <f t="shared" si="15"/>
+        <v>13787002.098847916</v>
+      </c>
+      <c r="AC21" s="2">
+        <f>V21-SUMIF($T$5:$T21,"&gt;=0",$T$5:$T21)</f>
+        <v>14319667.571188346</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="I22" s="3">
         <v>18</v>
       </c>
@@ -2043,25 +2283,39 @@
         <v>19144.079490501081</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>18325195.069705091</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" si="10"/>
         <v>5237006.8399021095</v>
       </c>
-      <c r="X22" s="2"/>
+      <c r="X22" s="2">
+        <f t="shared" si="11"/>
+        <v>4483697.2230565678</v>
+      </c>
       <c r="Y22" s="2">
-        <f t="shared" si="11"/>
-        <v>3967862.7604116071</v>
-      </c>
-      <c r="Z22" s="2"/>
+        <f t="shared" si="12"/>
+        <v>3516548.0842277119</v>
+      </c>
+      <c r="Z22" s="2">
+        <f t="shared" si="13"/>
+        <v>452482.21263415675</v>
+      </c>
       <c r="AA22" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18325195.069705091</v>
       </c>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB22" s="2">
+        <f t="shared" si="15"/>
+        <v>15818708.508750001</v>
+      </c>
+      <c r="AC22" s="2">
+        <f>V22-SUMIF($T$5:$T22,"&gt;=0",$T$5:$T22)</f>
+        <v>16709910.406367268</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
@@ -2123,25 +2377,39 @@
         <v>36722.886712328414</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>21073974.330160853</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="10"/>
         <v>5600159.0116643691</v>
       </c>
-      <c r="X23" s="2"/>
+      <c r="X23" s="2">
+        <f t="shared" si="11"/>
+        <v>4786683.9139765501</v>
+      </c>
       <c r="Y23" s="2">
-        <f t="shared" si="11"/>
-        <v>4313436.1249520406</v>
-      </c>
-      <c r="Z23" s="2"/>
+        <f t="shared" si="12"/>
+        <v>3817375.488439098</v>
+      </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="13"/>
+        <v>497606.32326586469</v>
+      </c>
       <c r="AA23" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21073974.330160853</v>
       </c>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB23" s="2">
+        <f t="shared" si="15"/>
+        <v>18155170.880137399</v>
+      </c>
+      <c r="AC23" s="2">
+        <f>V23-SUMIF($T$5:$T23,"&gt;=0",$T$5:$T23)</f>
+        <v>19458689.66682303</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>1</v>
       </c>
@@ -2205,35 +2473,48 @@
         <v>61683.032544900576</v>
       </c>
       <c r="V24" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>24235070.479684979</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" si="10"/>
         <v>5988849.4611355793</v>
       </c>
-      <c r="X24" s="8"/>
+      <c r="X24" s="8">
+        <f t="shared" si="11"/>
+        <v>5112200.6085633691</v>
+      </c>
       <c r="Y24" s="8">
-        <f t="shared" si="11"/>
-        <v>4677166.4285906786</v>
-      </c>
-      <c r="Z24" s="8"/>
+        <f t="shared" si="12"/>
+        <v>4133244.2628610525</v>
+      </c>
+      <c r="Z24" s="8">
+        <f t="shared" si="13"/>
+        <v>544986.63942915783</v>
+      </c>
       <c r="AA24" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24235070.479684979</v>
       </c>
-      <c r="AB24" s="7"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB24" s="8">
+        <f t="shared" si="15"/>
+        <v>20842102.607232906</v>
+      </c>
+      <c r="AC24" s="8">
+        <f>V24-SUMIF($T$5:$T24,"&gt;=0",$T$5:$T24)</f>
+        <v>22619785.816347156</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>2</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" ref="C25:C88" si="14">PPMT($C$5/12,B25,$C$6*12,(1-$C$4)*-$C$3)</f>
+        <f t="shared" ref="C25:C88" si="17">PPMT($C$5/12,B25,$C$6*12,(1-$C$4)*-$C$3)</f>
         <v>1082.2799795176425</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" ref="D25:D88" si="15">IPMT($C$5/12,B25,$C$6*12,(1-$C$4)*-$C$3)</f>
+        <f t="shared" ref="D25:D88" si="18">IPMT($C$5/12,B25,$C$6*12,(1-$C$4)*-$C$3)</f>
         <v>7025.1962275850483</v>
       </c>
       <c r="I25" s="3">
@@ -2288,34 +2569,48 @@
         <v>95352.06565217358</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>27870331.051637724</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="10"/>
         <v>6405374.7361231167</v>
       </c>
-      <c r="X25" s="2"/>
+      <c r="X25" s="2">
+        <f t="shared" si="11"/>
+        <v>5462393.4409222957</v>
+      </c>
       <c r="Y25" s="2">
-        <f t="shared" si="11"/>
-        <v>5060022.6704709427</v>
-      </c>
-      <c r="Z25" s="2"/>
+        <f t="shared" si="12"/>
+        <v>4464906.4760041051</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="13"/>
+        <v>594735.97140061576</v>
+      </c>
       <c r="AA25" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>27870331.051637724</v>
       </c>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB25" s="2">
+        <f t="shared" si="15"/>
+        <v>23932074.093392737</v>
+      </c>
+      <c r="AC25" s="2">
+        <f>V25-SUMIF($T$5:$T25,"&gt;=0",$T$5:$T25)</f>
+        <v>26255046.388299901</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>3</v>
       </c>
       <c r="C26" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1088.3678044024296</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>7019.1084027002598</v>
       </c>
       <c r="I26" s="3">
@@ -2370,34 +2665,48 @@
         <v>139266.50921072008</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>32050880.70938338</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="10"/>
         <v>6852293.0668048486</v>
       </c>
-      <c r="X26" s="2"/>
+      <c r="X26" s="2">
+        <f t="shared" si="11"/>
+        <v>5839662.7068439871</v>
+      </c>
       <c r="Y26" s="2">
-        <f t="shared" si="11"/>
-        <v>5463026.5575941289</v>
-      </c>
-      <c r="Z26" s="2"/>
+        <f t="shared" si="12"/>
+        <v>4813151.7998043094</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="13"/>
+        <v>646972.76997064636</v>
+      </c>
       <c r="AA26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>32050880.70938338</v>
       </c>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB26" s="2">
+        <f t="shared" si="15"/>
+        <v>27485541.302476548</v>
+      </c>
+      <c r="AC26" s="2">
+        <f>V26-SUMIF($T$5:$T26,"&gt;=0",$T$5:$T26)</f>
+        <v>30435596.046045557</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>4</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1094.489873302193</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>7012.9863338004971</v>
       </c>
       <c r="I27" s="3">
@@ -2452,34 +2761,48 @@
         <v>195203.61737187314</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>36858512.815790884</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="10"/>
         <v>7332459.0540530169</v>
       </c>
-      <c r="X27" s="2"/>
+      <c r="X27" s="2">
+        <f t="shared" si="11"/>
+        <v>6246697.176094112</v>
+      </c>
       <c r="Y27" s="2">
-        <f t="shared" si="11"/>
-        <v>5887255.4366811439</v>
-      </c>
-      <c r="Z27" s="2"/>
+        <f t="shared" si="12"/>
+        <v>5178809.3897945266</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="13"/>
+        <v>701821.40846917895</v>
+      </c>
       <c r="AA27" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>36858512.815790884</v>
       </c>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB27" s="2">
+        <f t="shared" si="15"/>
+        <v>31572028.592922926</v>
+      </c>
+      <c r="AC27" s="2">
+        <f>V27-SUMIF($T$5:$T27,"&gt;=0",$T$5:$T27)</f>
+        <v>35243228.152453065</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>5</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1100.6463788395176</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>7006.8298282631731</v>
       </c>
       <c r="I28" s="3">
@@ -2534,34 +2857,48 @@
         <v>265217.91001012054</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>42387289.738159515</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" si="10"/>
         <v>7849063.3032799484</v>
       </c>
-      <c r="X28" s="2"/>
+      <c r="X28" s="2">
+        <f t="shared" si="11"/>
+        <v>6686513.3314230982</v>
+      </c>
       <c r="Y28" s="2">
-        <f t="shared" si="11"/>
-        <v>6333845.3932698276</v>
-      </c>
-      <c r="Z28" s="2"/>
+        <f t="shared" si="12"/>
+        <v>5562749.8592842519</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" si="13"/>
+        <v>759412.47889263777</v>
+      </c>
       <c r="AA28" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>42387289.738159515</v>
       </c>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB28" s="2">
+        <f t="shared" si="15"/>
+        <v>36271488.976936258</v>
+      </c>
+      <c r="AC28" s="2">
+        <f>V28-SUMIF($T$5:$T28,"&gt;=0",$T$5:$T28)</f>
+        <v>40772005.074821696</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>6</v>
       </c>
       <c r="C29" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1106.8375147204902</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>7000.6386923822001</v>
       </c>
       <c r="I29" s="3">
@@ -2616,34 +2953,48 @@
         <v>351683.20284483948</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>48745383.198883437</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="10"/>
         <v>8405677.7306918204</v>
       </c>
-      <c r="X29" s="2"/>
+      <c r="X29" s="2">
+        <f t="shared" si="11"/>
+        <v>7162500.2602421278</v>
+      </c>
       <c r="Y29" s="2">
-        <f t="shared" si="11"/>
-        <v>6803994.5278469808</v>
-      </c>
-      <c r="Z29" s="2"/>
+        <f t="shared" si="12"/>
+        <v>5965887.3522484638</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="13"/>
+        <v>819883.10283726954</v>
+      </c>
       <c r="AA29" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>48745383.198883437</v>
       </c>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB29" s="2">
+        <f t="shared" si="15"/>
+        <v>41675868.418551594</v>
+      </c>
+      <c r="AC29" s="2">
+        <f>V29-SUMIF($T$5:$T29,"&gt;=0",$T$5:$T29)</f>
+        <v>47130098.535545617</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>7</v>
       </c>
       <c r="C30" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1113.0634757407927</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6994.4127313618974</v>
       </c>
       <c r="I30" s="3">
@@ -2698,34 +3049,48 @@
         <v>457340.95757511311</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>56057190.678715944</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" si="10"/>
         <v>9006307.376979256</v>
       </c>
-      <c r="X30" s="2"/>
+      <c r="X30" s="2">
+        <f t="shared" si="11"/>
+        <v>7678471.0330070788</v>
+      </c>
       <c r="Y30" s="2">
-        <f t="shared" si="11"/>
-        <v>7298966.4194041435</v>
-      </c>
-      <c r="Z30" s="2"/>
+        <f t="shared" si="12"/>
+        <v>6389181.7198608872</v>
+      </c>
+      <c r="Z30" s="2">
+        <f t="shared" si="13"/>
+        <v>883377.25797913305</v>
+      </c>
       <c r="AA30" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>56057190.678715944</v>
       </c>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB30" s="2">
+        <f t="shared" si="15"/>
+        <v>47890904.776409224</v>
+      </c>
+      <c r="AC30" s="2">
+        <f>V30-SUMIF($T$5:$T30,"&gt;=0",$T$5:$T30)</f>
+        <v>54441906.015378125</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>8</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1119.3244577918349</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6988.1517493108558</v>
       </c>
       <c r="I31" s="3">
@@ -2780,34 +3145,48 @@
         <v>585355.90035047301</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>64465769.28052333</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="10"/>
         <v>9655449.6877832506</v>
       </c>
-      <c r="X31" s="2"/>
+      <c r="X31" s="2">
+        <f t="shared" si="11"/>
+        <v>8238721.5266124643</v>
+      </c>
       <c r="Y31" s="2">
-        <f t="shared" si="11"/>
-        <v>7820093.7874327768</v>
-      </c>
-      <c r="Z31" s="2"/>
+        <f t="shared" si="12"/>
+        <v>6833640.8058539331</v>
+      </c>
+      <c r="Z31" s="2">
+        <f t="shared" si="13"/>
+        <v>950046.12087808992</v>
+      </c>
       <c r="AA31" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>64465769.28052333</v>
       </c>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB31" s="2">
+        <f t="shared" si="15"/>
+        <v>55038196.587945506</v>
+      </c>
+      <c r="AC31" s="2">
+        <f>V31-SUMIF($T$5:$T31,"&gt;=0",$T$5:$T31)</f>
+        <v>62850484.617185511</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>9</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1125.6206578669139</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6981.8555492357764</v>
       </c>
       <c r="I32" s="3">
@@ -2862,34 +3241,48 @@
         <v>739379.99913328188</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>74135634.672601819</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="10"/>
         <v>10358162.363172986</v>
       </c>
-      <c r="X32" s="2"/>
+      <c r="X32" s="2">
+        <f t="shared" si="11"/>
+        <v>8848097.7939436603</v>
+      </c>
       <c r="Y32" s="2">
-        <f t="shared" si="11"/>
-        <v>8368782.3640397042</v>
-      </c>
-      <c r="Z32" s="2"/>
+        <f t="shared" si="12"/>
+        <v>7300322.8461466283</v>
+      </c>
+      <c r="Z32" s="2">
+        <f t="shared" si="13"/>
+        <v>1020048.4269219942</v>
+      </c>
       <c r="AA32" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>74135634.672601819</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB32" s="2">
+        <f t="shared" si="15"/>
+        <v>63257582.171212219</v>
+      </c>
+      <c r="AC32" s="2">
+        <f>V32-SUMIF($T$5:$T32,"&gt;=0",$T$5:$T32)</f>
+        <v>72520350.009263992</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>10</v>
       </c>
       <c r="C33" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1131.9522740674154</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6975.5239330352751</v>
       </c>
       <c r="I33" s="3">
@@ -2944,34 +3337,48 @@
         <v>923626.0540732916</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>85255979.873492092</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="10"/>
         <v>11120141.042643521</v>
       </c>
-      <c r="X33" s="2"/>
+      <c r="X33" s="2">
+        <f t="shared" si="11"/>
+        <v>9512073.244952729</v>
+      </c>
       <c r="Y33" s="2">
-        <f t="shared" si="11"/>
-        <v>8946514.9885702301</v>
-      </c>
-      <c r="Z33" s="2"/>
+        <f t="shared" si="12"/>
+        <v>7790338.9884539619</v>
+      </c>
+      <c r="Z33" s="2">
+        <f t="shared" si="13"/>
+        <v>1093550.8482680942</v>
+      </c>
       <c r="AA33" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>85255979.873492092</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB33" s="2">
+        <f t="shared" si="15"/>
+        <v>72709875.591968954</v>
+      </c>
+      <c r="AC33" s="2">
+        <f>V33-SUMIF($T$5:$T33,"&gt;=0",$T$5:$T33)</f>
+        <v>83640695.210154265</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>11</v>
       </c>
       <c r="C34" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1138.3195056090444</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6969.1567014936454</v>
       </c>
       <c r="I34" s="7">
@@ -3026,204 +3433,217 @@
         <v>1142952.3431111798</v>
       </c>
       <c r="V34" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>98044376.854515895</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="10"/>
         <v>11947808.280987836</v>
       </c>
-      <c r="X34" s="8"/>
+      <c r="X34" s="8">
+        <f t="shared" si="11"/>
+        <v>10236837.093412505</v>
+      </c>
       <c r="Y34" s="8">
-        <f t="shared" si="11"/>
-        <v>9554855.9378766567</v>
-      </c>
-      <c r="Z34" s="8"/>
+        <f t="shared" si="12"/>
+        <v>8304855.9378766567</v>
+      </c>
+      <c r="Z34" s="8">
+        <f t="shared" si="13"/>
+        <v>1170728.3906814985</v>
+      </c>
       <c r="AA34" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>98044376.854515895</v>
       </c>
-      <c r="AB34" s="7"/>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB34" s="8">
+        <f t="shared" si="15"/>
+        <v>83580013.02583918</v>
+      </c>
+      <c r="AC34" s="8">
+        <f>V34-SUMIF($T$5:$T34,"&gt;=0",$T$5:$T34)</f>
+        <v>96429092.191178069</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>12</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1144.7225528280953</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6962.7536542745938</v>
       </c>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>13</v>
       </c>
       <c r="C36" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1151.1616171877533</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6956.3145899149367</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <v>14</v>
       </c>
       <c r="C37" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1157.6369012844343</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6949.8393058182564</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <v>15</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1164.1486088541594</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6943.3275982485311</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B39" s="3">
         <v>16</v>
       </c>
       <c r="C39" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1170.6969447789641</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6936.7792623237265</v>
       </c>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B40" s="3">
         <v>17</v>
       </c>
       <c r="C40" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1177.2821150933457</v>
       </c>
       <c r="D40" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6930.1940920093448</v>
       </c>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B41" s="3">
         <v>18</v>
       </c>
       <c r="C41" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1183.9043269907459</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6923.5718801119447</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" s="3">
         <v>19</v>
       </c>
       <c r="C42" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1190.5637888300689</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6916.9124182726218</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B43" s="3">
         <v>20</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1197.2607101422379</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6910.2154969604526</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B44" s="3">
         <v>21</v>
       </c>
       <c r="C44" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1203.9953016367881</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6903.4809054659017</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B45" s="3">
         <v>22</v>
       </c>
       <c r="C45" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1210.7677752084951</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6896.7084318941961</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46" s="3">
         <v>23</v>
       </c>
       <c r="C46" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1217.5783439440429</v>
       </c>
       <c r="D46" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6889.8978631586479</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B47" s="3">
         <v>24</v>
       </c>
       <c r="C47" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1224.4272221287281</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6883.0489849739624</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B48" s="3">
         <v>25</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1231.3146252532022</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6876.1615818494884</v>
       </c>
     </row>
@@ -3232,11 +3652,11 @@
         <v>26</v>
       </c>
       <c r="C49" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1238.2407700202514</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6869.2354370824387</v>
       </c>
     </row>
@@ -3245,11 +3665,11 @@
         <v>27</v>
       </c>
       <c r="C50" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1245.2058743516152</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6862.2703327510744</v>
       </c>
     </row>
@@ -3258,11 +3678,11 @@
         <v>28</v>
       </c>
       <c r="C51" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1252.210157394843</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6855.2660497078477</v>
       </c>
     </row>
@@ -3271,11 +3691,11 @@
         <v>29</v>
       </c>
       <c r="C52" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1259.2538395301892</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6848.2223675725008</v>
       </c>
     </row>
@@ -3284,11 +3704,11 @@
         <v>30</v>
       </c>
       <c r="C53" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1266.3371423775466</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6841.1390647251446</v>
       </c>
     </row>
@@ -3297,11 +3717,11 @@
         <v>31</v>
       </c>
       <c r="C54" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1273.4602888034201</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6834.0159182992702</v>
       </c>
     </row>
@@ -3310,11 +3730,11 @@
         <v>32</v>
       </c>
       <c r="C55" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1280.6235029279394</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6826.8527041747502</v>
       </c>
     </row>
@@ -3323,11 +3743,11 @@
         <v>33</v>
       </c>
       <c r="C56" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1287.827010131909</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6819.6491969707813</v>
       </c>
     </row>
@@ -3336,11 +3756,11 @@
         <v>34</v>
       </c>
       <c r="C57" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1295.071037063901</v>
       </c>
       <c r="D57" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6812.405170038789</v>
       </c>
     </row>
@@ -3349,11 +3769,11 @@
         <v>35</v>
       </c>
       <c r="C58" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1302.3558116473855</v>
       </c>
       <c r="D58" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6805.1203954553039</v>
       </c>
     </row>
@@ -3362,11 +3782,11 @@
         <v>36</v>
       </c>
       <c r="C59" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1309.6815630879018</v>
       </c>
       <c r="D59" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6797.7946440147889</v>
       </c>
     </row>
@@ -3375,11 +3795,11 @@
         <v>37</v>
       </c>
       <c r="C60" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1317.0485218802712</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6790.4276852224193</v>
       </c>
     </row>
@@ -3388,11 +3808,11 @@
         <v>38</v>
       </c>
       <c r="C61" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1324.4569198158479</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6783.019287286842</v>
       </c>
     </row>
@@ -3401,11 +3821,11 @@
         <v>39</v>
       </c>
       <c r="C62" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1331.9069899898122</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6775.5692171128785</v>
       </c>
     </row>
@@ -3414,11 +3834,11 @@
         <v>40</v>
       </c>
       <c r="C63" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1339.3989668085048</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6768.0772402941857</v>
       </c>
     </row>
@@ -3427,11 +3847,11 @@
         <v>41</v>
       </c>
       <c r="C64" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1346.9330859968027</v>
       </c>
       <c r="D64" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6760.5431211058876</v>
       </c>
     </row>
@@ -3440,11 +3860,11 @@
         <v>42</v>
       </c>
       <c r="C65" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1354.5095846055347</v>
       </c>
       <c r="D65" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6752.9666224971561</v>
       </c>
     </row>
@@ -3453,11 +3873,11 @@
         <v>43</v>
       </c>
       <c r="C66" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1362.128701018941</v>
       </c>
       <c r="D66" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6745.3475060837491</v>
       </c>
     </row>
@@ -3466,11 +3886,11 @@
         <v>44</v>
       </c>
       <c r="C67" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1369.7906749621723</v>
       </c>
       <c r="D67" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6737.6855321405183</v>
       </c>
     </row>
@@ -3479,11 +3899,11 @@
         <v>45</v>
       </c>
       <c r="C68" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1377.4957475088345</v>
       </c>
       <c r="D68" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6729.9804595938558</v>
       </c>
     </row>
@@ -3492,11 +3912,11 @@
         <v>46</v>
       </c>
       <c r="C69" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1385.2441610885717</v>
       </c>
       <c r="D69" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6722.2320460141182</v>
       </c>
     </row>
@@ -3505,11 +3925,11 @@
         <v>47</v>
       </c>
       <c r="C70" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1393.0361594946949</v>
       </c>
       <c r="D70" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6714.4400476079954</v>
       </c>
     </row>
@@ -3518,11 +3938,11 @@
         <v>48</v>
       </c>
       <c r="C71" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1400.8719878918523</v>
       </c>
       <c r="D71" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6706.604219210838</v>
       </c>
     </row>
@@ -3531,11 +3951,11 @@
         <v>49</v>
       </c>
       <c r="C72" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1408.7518928237446</v>
       </c>
       <c r="D72" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6698.7243142789466</v>
       </c>
     </row>
@@ -3544,11 +3964,11 @@
         <v>50</v>
       </c>
       <c r="C73" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1416.6761222208779</v>
       </c>
       <c r="D73" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6690.8000848818119</v>
       </c>
     </row>
@@ -3557,11 +3977,11 @@
         <v>51</v>
       </c>
       <c r="C74" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1424.6449254083705</v>
       </c>
       <c r="D74" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6682.8312816943198</v>
       </c>
     </row>
@@ -3570,11 +3990,11 @@
         <v>52</v>
       </c>
       <c r="C75" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1432.6585531137925</v>
       </c>
       <c r="D75" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6674.8176539888973</v>
       </c>
     </row>
@@ -3583,11 +4003,11 @@
         <v>53</v>
       </c>
       <c r="C76" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1440.7172574750575</v>
       </c>
       <c r="D76" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6666.7589496276323</v>
       </c>
     </row>
@@ -3596,11 +4016,11 @@
         <v>54</v>
       </c>
       <c r="C77" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1448.8212920483547</v>
       </c>
       <c r="D77" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6658.654915054336</v>
       </c>
     </row>
@@ -3609,11 +4029,11 @@
         <v>55</v>
       </c>
       <c r="C78" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1456.9709118161268</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6650.5052952865635</v>
       </c>
     </row>
@@ -3622,11 +4042,11 @@
         <v>56</v>
       </c>
       <c r="C79" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1465.1663731950923</v>
       </c>
       <c r="D79" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6642.3098339075977</v>
       </c>
     </row>
@@ -3635,11 +4055,11 @@
         <v>57</v>
       </c>
       <c r="C80" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1473.4079340443147</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6634.0682730583749</v>
       </c>
     </row>
@@ -3648,11 +4068,11 @@
         <v>58</v>
       </c>
       <c r="C81" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1481.6958536733139</v>
       </c>
       <c r="D81" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6625.7803534293771</v>
       </c>
     </row>
@@ -3661,11 +4081,11 @@
         <v>59</v>
       </c>
       <c r="C82" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1490.0303928502267</v>
       </c>
       <c r="D82" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6617.4458142524645</v>
       </c>
     </row>
@@ -3674,11 +4094,11 @@
         <v>60</v>
       </c>
       <c r="C83" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1498.4118138100091</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6609.0643932926814</v>
       </c>
     </row>
@@ -3687,11 +4107,11 @@
         <v>61</v>
       </c>
       <c r="C84" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1506.8403802626904</v>
       </c>
       <c r="D84" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6600.635826839999</v>
       </c>
     </row>
@@ -3700,11 +4120,11 @@
         <v>62</v>
       </c>
       <c r="C85" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1515.3163574016678</v>
       </c>
       <c r="D85" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6592.1598497010218</v>
       </c>
     </row>
@@ -3713,11 +4133,11 @@
         <v>63</v>
       </c>
       <c r="C86" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1523.8400119120524</v>
       </c>
       <c r="D86" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6583.6361951906374</v>
       </c>
     </row>
@@ -3726,11 +4146,11 @@
         <v>64</v>
       </c>
       <c r="C87" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1532.4116119790574</v>
       </c>
       <c r="D87" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6575.0645951236329</v>
       </c>
     </row>
@@ -3739,11 +4159,11 @@
         <v>65</v>
       </c>
       <c r="C88" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1541.0314272964397</v>
       </c>
       <c r="D88" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6566.4447798062511</v>
       </c>
     </row>
@@ -3752,11 +4172,11 @@
         <v>66</v>
       </c>
       <c r="C89" s="6">
-        <f t="shared" ref="C89:C152" si="16">PPMT($C$5/12,B89,$C$6*12,(1-$C$4)*-$C$3)</f>
+        <f t="shared" ref="C89:C152" si="19">PPMT($C$5/12,B89,$C$6*12,(1-$C$4)*-$C$3)</f>
         <v>1549.6997290749823</v>
       </c>
       <c r="D89" s="6">
-        <f t="shared" ref="D89:D152" si="17">IPMT($C$5/12,B89,$C$6*12,(1-$C$4)*-$C$3)</f>
+        <f t="shared" ref="D89:D152" si="20">IPMT($C$5/12,B89,$C$6*12,(1-$C$4)*-$C$3)</f>
         <v>6557.7764780277075</v>
       </c>
     </row>
@@ -3765,11 +4185,11 @@
         <v>67</v>
       </c>
       <c r="C90" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1558.416790051029</v>
       </c>
       <c r="D90" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6549.0594170516624</v>
       </c>
     </row>
@@ -3778,11 +4198,11 @@
         <v>68</v>
       </c>
       <c r="C91" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1567.182884495066</v>
       </c>
       <c r="D91" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6540.2933226076248</v>
       </c>
     </row>
@@ -3791,11 +4211,11 @@
         <v>69</v>
       </c>
       <c r="C92" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1575.9982882203508</v>
       </c>
       <c r="D92" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6531.4779188823395</v>
       </c>
     </row>
@@ -3804,11 +4224,11 @@
         <v>70</v>
       </c>
       <c r="C93" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1584.8632785915904</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6522.6129285110992</v>
       </c>
     </row>
@@ -3817,11 +4237,11 @@
         <v>71</v>
       </c>
       <c r="C94" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1593.7781345336682</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6513.6980725690219</v>
       </c>
     </row>
@@ -3830,11 +4250,11 @@
         <v>72</v>
       </c>
       <c r="C95" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1602.74313654042</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6504.7330705622708</v>
       </c>
     </row>
@@ -3843,11 +4263,11 @@
         <v>73</v>
       </c>
       <c r="C96" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1611.7585666834598</v>
       </c>
       <c r="D96" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6495.7176404192296</v>
       </c>
     </row>
@@ -3856,11 +4276,11 @@
         <v>74</v>
       </c>
       <c r="C97" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1620.8247086210542</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6486.6514984816358</v>
       </c>
     </row>
@@ -3869,11 +4289,11 @@
         <v>75</v>
       </c>
       <c r="C98" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1629.9418476070473</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6477.534359495643</v>
       </c>
     </row>
@@ -3882,11 +4302,11 @@
         <v>76</v>
       </c>
       <c r="C99" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1639.1102704998373</v>
       </c>
       <c r="D99" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6468.3659366028533</v>
       </c>
     </row>
@@ -3895,11 +4315,11 @@
         <v>77</v>
       </c>
       <c r="C100" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1648.3302657713989</v>
       </c>
       <c r="D100" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6459.1459413312923</v>
       </c>
     </row>
@@ -3908,11 +4328,11 @@
         <v>78</v>
       </c>
       <c r="C101" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1657.602123516363</v>
       </c>
       <c r="D101" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6449.8740835863273</v>
       </c>
     </row>
@@ -3921,11 +4341,11 @@
         <v>79</v>
       </c>
       <c r="C102" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1666.9261354611419</v>
       </c>
       <c r="D102" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6440.550071641549</v>
       </c>
     </row>
@@ -3934,11 +4354,11 @@
         <v>80</v>
       </c>
       <c r="C103" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1676.3025949731116</v>
       </c>
       <c r="D103" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6431.1736121295789</v>
       </c>
     </row>
@@ -3947,11 +4367,11 @@
         <v>81</v>
       </c>
       <c r="C104" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1685.731797069835</v>
       </c>
       <c r="D104" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6421.7444100328539</v>
       </c>
     </row>
@@ -3960,11 +4380,11 @@
         <v>82</v>
       </c>
       <c r="C105" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1695.214038428353</v>
       </c>
       <c r="D105" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6412.2621686743369</v>
       </c>
     </row>
@@ -3973,11 +4393,11 @@
         <v>83</v>
       </c>
       <c r="C106" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1704.7496173945126</v>
       </c>
       <c r="D106" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6402.726589708177</v>
       </c>
     </row>
@@ -3986,11 +4406,11 @@
         <v>84</v>
       </c>
       <c r="C107" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1714.3388339923567</v>
       </c>
       <c r="D107" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6393.137373110334</v>
       </c>
     </row>
@@ -3999,11 +4419,11 @@
         <v>85</v>
       </c>
       <c r="C108" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1723.9819899335635</v>
       </c>
       <c r="D108" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6383.4942171691273</v>
       </c>
     </row>
@@ -4012,11 +4432,11 @@
         <v>86</v>
       </c>
       <c r="C109" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1733.6793886269397</v>
       </c>
       <c r="D109" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6373.7968184757501</v>
       </c>
     </row>
@@ -4025,11 +4445,11 @@
         <v>87</v>
       </c>
       <c r="C110" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1743.4313351879666</v>
       </c>
       <c r="D110" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6364.0448719147234</v>
       </c>
     </row>
@@ -4038,11 +4458,11 @@
         <v>88</v>
       </c>
       <c r="C111" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1753.2381364483986</v>
       </c>
       <c r="D111" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6354.2380706542917</v>
       </c>
     </row>
@@ -4051,11 +4471,11 @@
         <v>89</v>
       </c>
       <c r="C112" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1763.1001009659208</v>
       </c>
       <c r="D112" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6344.3761061367686</v>
       </c>
     </row>
@@ -4064,11 +4484,11 @@
         <v>90</v>
       </c>
       <c r="C113" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1773.0175390338545</v>
       </c>
       <c r="D113" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6334.4586680688353</v>
       </c>
     </row>
@@ -4077,11 +4497,11 @@
         <v>91</v>
       </c>
       <c r="C114" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1782.9907626909198</v>
       </c>
       <c r="D114" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6324.48544441177</v>
       </c>
     </row>
@@ -4090,11 +4510,11 @@
         <v>92</v>
       </c>
       <c r="C115" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1793.0200857310565</v>
       </c>
       <c r="D115" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6314.4561213716343</v>
       </c>
     </row>
@@ -4103,11 +4523,11 @@
         <v>93</v>
       </c>
       <c r="C116" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1803.1058237132934</v>
       </c>
       <c r="D116" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6304.3703833893969</v>
       </c>
     </row>
@@ -4116,11 +4536,11 @@
         <v>94</v>
       </c>
       <c r="C117" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1813.2482939716806</v>
       </c>
       <c r="D117" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6294.2279131310097</v>
       </c>
     </row>
@@ -4129,11 +4549,11 @@
         <v>95</v>
       </c>
       <c r="C118" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1823.4478156252715</v>
       </c>
       <c r="D118" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6284.0283914774191</v>
       </c>
     </row>
@@ -4142,11 +4562,11 @@
         <v>96</v>
       </c>
       <c r="C119" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1833.7047095881633</v>
       </c>
       <c r="D119" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6273.7714975145273</v>
       </c>
     </row>
@@ -4155,11 +4575,11 @@
         <v>97</v>
       </c>
       <c r="C120" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1844.019298579597</v>
       </c>
       <c r="D120" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6263.4569085230942</v>
       </c>
     </row>
@@ -4168,11 +4588,11 @@
         <v>98</v>
       </c>
       <c r="C121" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1854.3919071341072</v>
       </c>
       <c r="D121" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6253.0842999685838</v>
       </c>
     </row>
@@ -4181,11 +4601,11 @@
         <v>99</v>
       </c>
       <c r="C122" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1864.8228616117362</v>
       </c>
       <c r="D122" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6242.6533454909531</v>
       </c>
     </row>
@@ -4194,11 +4614,11 @@
         <v>100</v>
       </c>
       <c r="C123" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1875.3124902083027</v>
       </c>
       <c r="D123" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6232.163716894388</v>
       </c>
     </row>
@@ -4207,11 +4627,11 @@
         <v>101</v>
       </c>
       <c r="C124" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1885.8611229657245</v>
       </c>
       <c r="D124" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6221.6150841369654</v>
       </c>
     </row>
@@ -4220,11 +4640,11 @@
         <v>102</v>
       </c>
       <c r="C125" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1896.4690917824066</v>
       </c>
       <c r="D125" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6211.0071153202834</v>
       </c>
     </row>
@@ -4233,11 +4653,11 @@
         <v>103</v>
       </c>
       <c r="C126" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1907.1367304236826</v>
       </c>
       <c r="D126" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6200.339476679007</v>
       </c>
     </row>
@@ -4246,11 +4666,11 @@
         <v>104</v>
       </c>
       <c r="C127" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1917.8643745323157</v>
       </c>
       <c r="D127" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6189.6118325703746</v>
       </c>
     </row>
@@ -4259,11 +4679,11 @@
         <v>105</v>
       </c>
       <c r="C128" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1928.6523616390598</v>
       </c>
       <c r="D128" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6178.8238454636303</v>
       </c>
     </row>
@@ -4272,11 +4692,11 @@
         <v>106</v>
       </c>
       <c r="C129" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1939.5010311732794</v>
       </c>
       <c r="D129" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6167.9751759294104</v>
       </c>
     </row>
@@ -4285,11 +4705,11 @@
         <v>107</v>
       </c>
       <c r="C130" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1950.4107244736294</v>
       </c>
       <c r="D130" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6157.0654826290602</v>
       </c>
     </row>
@@ -4298,11 +4718,11 @@
         <v>108</v>
       </c>
       <c r="C131" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1961.3817847987934</v>
       </c>
       <c r="D131" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6146.0944223038969</v>
       </c>
     </row>
@@ -4311,11 +4731,11 @@
         <v>109</v>
       </c>
       <c r="C132" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1972.4145573382864</v>
       </c>
       <c r="D132" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6135.0616497644041</v>
       </c>
     </row>
@@ -4324,11 +4744,11 @@
         <v>110</v>
       </c>
       <c r="C133" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1983.5093892233142</v>
       </c>
       <c r="D133" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6123.9668178793763</v>
       </c>
     </row>
@@ -4337,11 +4757,11 @@
         <v>111</v>
       </c>
       <c r="C134" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1994.6666295376958</v>
       </c>
       <c r="D134" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6112.8095775649945</v>
       </c>
     </row>
@@ -4350,11 +4770,11 @@
         <v>112</v>
       </c>
       <c r="C135" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2005.8866293288454</v>
       </c>
       <c r="D135" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6101.5895777738442</v>
       </c>
     </row>
@@ -4363,11 +4783,11 @@
         <v>113</v>
       </c>
       <c r="C136" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2017.1697416188201</v>
       </c>
       <c r="D136" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6090.3064654838699</v>
       </c>
     </row>
@@ -4376,11 +4796,11 @@
         <v>114</v>
       </c>
       <c r="C137" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2028.5163214154259</v>
       </c>
       <c r="D137" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6078.9598856872644</v>
       </c>
     </row>
@@ -4389,11 +4809,11 @@
         <v>115</v>
       </c>
       <c r="C138" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2039.9267257233878</v>
       </c>
       <c r="D138" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6067.5494813793021</v>
       </c>
     </row>
@@ -4402,11 +4822,11 @@
         <v>116</v>
       </c>
       <c r="C139" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2051.4013135555815</v>
       </c>
       <c r="D139" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6056.0748935471083</v>
       </c>
     </row>
@@ -4415,11 +4835,11 @@
         <v>117</v>
       </c>
       <c r="C140" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2062.9404459443317</v>
       </c>
       <c r="D140" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6044.5357611583577</v>
       </c>
     </row>
@@ -4428,11 +4848,11 @@
         <v>118</v>
       </c>
       <c r="C141" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2074.5444859527688</v>
       </c>
       <c r="D141" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6032.9317211499219</v>
       </c>
     </row>
@@ -4441,11 +4861,11 @@
         <v>119</v>
       </c>
       <c r="C142" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2086.2137986862531</v>
       </c>
       <c r="D142" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6021.2624084164381</v>
       </c>
     </row>
@@ -4454,11 +4874,11 @@
         <v>120</v>
       </c>
       <c r="C143" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2097.9487513038634</v>
       </c>
       <c r="D143" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6009.5274557988268</v>
       </c>
     </row>
@@ -4467,11 +4887,11 @@
         <v>121</v>
       </c>
       <c r="C144" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2109.7497130299475</v>
       </c>
       <c r="D144" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5997.7264940727428</v>
       </c>
     </row>
@@ -4480,11 +4900,11 @@
         <v>122</v>
       </c>
       <c r="C145" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2121.617055165741</v>
       </c>
       <c r="D145" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5985.8591519369493</v>
       </c>
     </row>
@@ -4493,11 +4913,11 @@
         <v>123</v>
       </c>
       <c r="C146" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2133.5511511010482</v>
       </c>
       <c r="D146" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5973.9250560016417</v>
       </c>
     </row>
@@ -4506,11 +4926,11 @@
         <v>124</v>
       </c>
       <c r="C147" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2145.5523763259916</v>
       </c>
       <c r="D147" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5961.9238307766982</v>
       </c>
     </row>
@@ -4519,11 +4939,11 @@
         <v>125</v>
       </c>
       <c r="C148" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2157.6211084428251</v>
       </c>
       <c r="D148" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5949.8550986598648</v>
       </c>
     </row>
@@ -4532,11 +4952,11 @@
         <v>126</v>
       </c>
       <c r="C149" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2169.7577271778159</v>
       </c>
       <c r="D149" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5937.7184799248744</v>
       </c>
     </row>
@@ -4545,11 +4965,11 @@
         <v>127</v>
       </c>
       <c r="C150" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2181.9626143931914</v>
       </c>
       <c r="D150" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5925.5135927094989</v>
       </c>
     </row>
@@ -4558,11 +4978,11 @@
         <v>128</v>
       </c>
       <c r="C151" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2194.2361540991528</v>
       </c>
       <c r="D151" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5913.2400530035366</v>
       </c>
     </row>
@@ -4571,11 +4991,11 @@
         <v>129</v>
       </c>
       <c r="C152" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2206.5787324659609</v>
       </c>
       <c r="D152" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5900.8974746367303</v>
       </c>
     </row>
@@ -4584,11 +5004,11 @@
         <v>130</v>
       </c>
       <c r="C153" s="6">
-        <f t="shared" ref="C153:C216" si="18">PPMT($C$5/12,B153,$C$6*12,(1-$C$4)*-$C$3)</f>
+        <f t="shared" ref="C153:C216" si="21">PPMT($C$5/12,B153,$C$6*12,(1-$C$4)*-$C$3)</f>
         <v>2218.9907378360817</v>
       </c>
       <c r="D153" s="6">
-        <f t="shared" ref="D153:D216" si="19">IPMT($C$5/12,B153,$C$6*12,(1-$C$4)*-$C$3)</f>
+        <f t="shared" ref="D153:D216" si="22">IPMT($C$5/12,B153,$C$6*12,(1-$C$4)*-$C$3)</f>
         <v>5888.4854692666086</v>
       </c>
     </row>
@@ -4597,11 +5017,11 @@
         <v>131</v>
       </c>
       <c r="C154" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2231.4725607364103</v>
       </c>
       <c r="D154" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5876.0036463662791</v>
       </c>
     </row>
@@ -4610,11 +5030,11 @@
         <v>132</v>
       </c>
       <c r="C155" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2244.0245938905523</v>
       </c>
       <c r="D155" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5863.4516132121371</v>
       </c>
     </row>
@@ -4623,11 +5043,11 @@
         <v>133</v>
       </c>
       <c r="C156" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2256.6472322311865</v>
       </c>
       <c r="D156" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5850.8289748715042</v>
       </c>
     </row>
@@ -4636,11 +5056,11 @@
         <v>134</v>
       </c>
       <c r="C157" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2269.3408729124872</v>
       </c>
       <c r="D157" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5838.1353341902031</v>
       </c>
     </row>
@@ -4649,11 +5069,11 @@
         <v>135</v>
       </c>
       <c r="C158" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2282.1059153226197</v>
       </c>
       <c r="D158" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5825.3702917800701</v>
       </c>
     </row>
@@ -4662,11 +5082,11 @@
         <v>136</v>
       </c>
       <c r="C159" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2294.9427610963094</v>
       </c>
       <c r="D159" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5812.5334460063805</v>
       </c>
     </row>
@@ -4675,11 +5095,11 @@
         <v>137</v>
       </c>
       <c r="C160" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2307.8518141274762</v>
       </c>
       <c r="D160" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5799.6243929752145</v>
       </c>
     </row>
@@ -4688,11 +5108,11 @@
         <v>138</v>
       </c>
       <c r="C161" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2320.8334805819436</v>
       </c>
       <c r="D161" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5786.6427265207467</v>
       </c>
     </row>
@@ -4701,11 +5121,11 @@
         <v>139</v>
       </c>
       <c r="C162" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2333.8881689102163</v>
       </c>
       <c r="D162" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5773.5880381924735</v>
       </c>
     </row>
@@ -4714,11 +5134,11 @@
         <v>140</v>
       </c>
       <c r="C163" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2347.0162898603367</v>
       </c>
       <c r="D163" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5760.4599172423541</v>
       </c>
     </row>
@@ -4727,11 +5147,11 @@
         <v>141</v>
       </c>
       <c r="C164" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2360.2182564908012</v>
       </c>
       <c r="D164" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5747.2579506118891</v>
       </c>
     </row>
@@ -4740,11 +5160,11 @@
         <v>142</v>
       </c>
       <c r="C165" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2373.4944841835618</v>
       </c>
       <c r="D165" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5733.9817229191276</v>
       </c>
     </row>
@@ -4753,11 +5173,11 @@
         <v>143</v>
       </c>
       <c r="C166" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2386.8453906570949</v>
       </c>
       <c r="D166" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5720.630816445595</v>
       </c>
     </row>
@@ -4766,11 +5186,11 @@
         <v>144</v>
       </c>
       <c r="C167" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2400.2713959795406</v>
       </c>
       <c r="D167" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5707.2048111231497</v>
       </c>
     </row>
@@ -4779,11 +5199,11 @@
         <v>145</v>
       </c>
       <c r="C168" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2413.7729225819257</v>
       </c>
       <c r="D168" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5693.703284520765</v>
       </c>
     </row>
@@ -4792,11 +5212,11 @@
         <v>146</v>
       </c>
       <c r="C169" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2427.3503952714486</v>
       </c>
       <c r="D169" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5680.1258118312417</v>
       </c>
     </row>
@@ -4805,11 +5225,11 @@
         <v>147</v>
       </c>
       <c r="C170" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2441.0042412448506</v>
       </c>
       <c r="D170" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5666.4719658578397</v>
       </c>
     </row>
@@ -4818,11 +5238,11 @@
         <v>148</v>
       </c>
       <c r="C171" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2454.7348901018527</v>
       </c>
       <c r="D171" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5652.7413170008367</v>
       </c>
     </row>
@@ -4831,11 +5251,11 @@
         <v>149</v>
       </c>
       <c r="C172" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2468.5427738586754</v>
       </c>
       <c r="D172" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5638.9334332440149</v>
       </c>
     </row>
@@ -4844,11 +5264,11 @@
         <v>150</v>
       </c>
       <c r="C173" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2482.4283269616303</v>
       </c>
       <c r="D173" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5625.04788014106</v>
       </c>
     </row>
@@ -4857,11 +5277,11 @@
         <v>151</v>
       </c>
       <c r="C174" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2496.3919863007895</v>
       </c>
       <c r="D174" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5611.0842208019003</v>
       </c>
     </row>
@@ -4870,11 +5290,11 @@
         <v>152</v>
       </c>
       <c r="C175" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2510.4341912237323</v>
       </c>
       <c r="D175" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5597.0420158789584</v>
       </c>
     </row>
@@ -4883,11 +5303,11 @@
         <v>153</v>
       </c>
       <c r="C176" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2524.5553835493656</v>
       </c>
       <c r="D176" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5582.9208235533242</v>
       </c>
     </row>
@@ -4896,11 +5316,11 @@
         <v>154</v>
       </c>
       <c r="C177" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2538.756007581831</v>
       </c>
       <c r="D177" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5568.7201995208598</v>
       </c>
     </row>
@@ -4909,11 +5329,11 @@
         <v>155</v>
       </c>
       <c r="C178" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2553.0365101244788</v>
       </c>
       <c r="D178" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5554.4396969782119</v>
       </c>
     </row>
@@ -4922,11 +5342,11 @@
         <v>156</v>
       </c>
       <c r="C179" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2567.3973404939288</v>
       </c>
       <c r="D179" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5540.0788666087619</v>
       </c>
     </row>
@@ -4935,11 +5355,11 @@
         <v>157</v>
       </c>
       <c r="C180" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2581.838950534207</v>
       </c>
       <c r="D180" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5525.6372565684833</v>
       </c>
     </row>
@@ -4948,11 +5368,11 @@
         <v>158</v>
       </c>
       <c r="C181" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2596.3617946309619</v>
       </c>
       <c r="D181" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5511.1144124717284</v>
       </c>
     </row>
@@ -4961,11 +5381,11 @@
         <v>159</v>
       </c>
       <c r="C182" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2610.9663297257607</v>
       </c>
       <c r="D182" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5496.5098773769296</v>
       </c>
     </row>
@@ -4974,11 +5394,11 @@
         <v>160</v>
       </c>
       <c r="C183" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2625.6530153304684</v>
       </c>
       <c r="D183" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5481.8231917722223</v>
       </c>
     </row>
@@ -4987,11 +5407,11 @@
         <v>161</v>
       </c>
       <c r="C184" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2640.4223135417019</v>
       </c>
       <c r="D184" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5467.0538935609884</v>
       </c>
     </row>
@@ -5000,11 +5420,11 @@
         <v>162</v>
       </c>
       <c r="C185" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2655.2746890553749</v>
       </c>
       <c r="D185" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5452.2015180473154</v>
       </c>
     </row>
@@ -5013,11 +5433,11 @@
         <v>163</v>
       </c>
       <c r="C186" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2670.2106091813107</v>
       </c>
       <c r="D186" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5437.2655979213796</v>
       </c>
     </row>
@@ -5026,11 +5446,11 @@
         <v>164</v>
       </c>
       <c r="C187" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2685.230543857956</v>
       </c>
       <c r="D187" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5422.2456632447338</v>
       </c>
     </row>
@@ -5039,11 +5459,11 @@
         <v>165</v>
       </c>
       <c r="C188" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2700.3349656671567</v>
       </c>
       <c r="D188" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5407.1412414355336</v>
       </c>
     </row>
@@ -5052,11 +5472,11 @@
         <v>166</v>
       </c>
       <c r="C189" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2715.5243498490345</v>
       </c>
       <c r="D189" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5391.9518572536563</v>
       </c>
     </row>
@@ -5065,11 +5485,11 @@
         <v>167</v>
       </c>
       <c r="C190" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2730.7991743169355</v>
       </c>
       <c r="D190" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5376.6770327857548</v>
       </c>
     </row>
@@ -5078,11 +5498,11 @@
         <v>168</v>
       </c>
       <c r="C191" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2746.1599196724683</v>
       </c>
       <c r="D191" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5361.3162874302225</v>
       </c>
     </row>
@@ -5091,11 +5511,11 @@
         <v>169</v>
       </c>
       <c r="C192" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2761.6070692206258</v>
       </c>
       <c r="D192" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5345.8691378820649</v>
       </c>
     </row>
@@ -5104,11 +5524,11 @@
         <v>170</v>
       </c>
       <c r="C193" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2777.1411089849917</v>
       </c>
       <c r="D193" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5330.3350981176991</v>
       </c>
     </row>
@@ -5117,11 +5537,11 @@
         <v>171</v>
       </c>
       <c r="C194" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2792.7625277230322</v>
       </c>
       <c r="D194" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5314.7136793796581</v>
       </c>
     </row>
@@ -5130,11 +5550,11 @@
         <v>172</v>
       </c>
       <c r="C195" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2808.4718169414746</v>
       </c>
       <c r="D195" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5299.0043901612162</v>
       </c>
     </row>
@@ -5143,11 +5563,11 @@
         <v>173</v>
       </c>
       <c r="C196" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2824.2694709117704</v>
       </c>
       <c r="D196" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5283.2067361909203</v>
       </c>
     </row>
@@ -5156,11 +5576,11 @@
         <v>174</v>
       </c>
       <c r="C197" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2840.1559866856492</v>
       </c>
       <c r="D197" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5267.320220417042</v>
       </c>
     </row>
@@ -5169,11 +5589,11 @@
         <v>175</v>
       </c>
       <c r="C198" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2856.1318641107559</v>
       </c>
       <c r="D198" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5251.3443429919344</v>
       </c>
     </row>
@@ -5182,11 +5602,11 @@
         <v>176</v>
       </c>
       <c r="C199" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2872.1976058463788</v>
       </c>
       <c r="D199" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5235.278601256311</v>
       </c>
     </row>
@@ -5195,11 +5615,11 @@
         <v>177</v>
       </c>
       <c r="C200" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2888.3537173792643</v>
       </c>
       <c r="D200" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5219.122489723426</v>
       </c>
     </row>
@@ -5208,11 +5628,11 @@
         <v>178</v>
       </c>
       <c r="C201" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2904.6007070395231</v>
       </c>
       <c r="D201" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5202.8755000631681</v>
       </c>
     </row>
@@ -5221,11 +5641,11 @@
         <v>179</v>
       </c>
       <c r="C202" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2920.93908601662</v>
       </c>
       <c r="D202" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5186.5371210860694</v>
       </c>
     </row>
@@ -5234,11 +5654,11 @@
         <v>180</v>
       </c>
       <c r="C203" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2937.3693683754636</v>
       </c>
       <c r="D203" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5170.1068387272271</v>
       </c>
     </row>
@@ -5247,11 +5667,11 @@
         <v>181</v>
       </c>
       <c r="C204" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2953.8920710725756</v>
       </c>
       <c r="D204" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5153.5841360301147</v>
       </c>
     </row>
@@ -5260,11 +5680,11 @@
         <v>182</v>
       </c>
       <c r="C205" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2970.5077139723594</v>
       </c>
       <c r="D205" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5136.9684931303309</v>
       </c>
     </row>
@@ -5273,11 +5693,11 @@
         <v>183</v>
       </c>
       <c r="C206" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2987.2168198634536</v>
       </c>
       <c r="D206" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5120.2593872392372</v>
       </c>
     </row>
@@ -5286,11 +5706,11 @@
         <v>184</v>
       </c>
       <c r="C207" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3004.019914475185</v>
       </c>
       <c r="D207" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5103.4562926275048</v>
       </c>
     </row>
@@ -5299,11 +5719,11 @@
         <v>185</v>
       </c>
       <c r="C208" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3020.9175264941086</v>
       </c>
       <c r="D208" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5086.5586806085821</v>
       </c>
     </row>
@@ -5312,11 +5732,11 @@
         <v>186</v>
       </c>
       <c r="C209" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3037.9101875806373</v>
       </c>
       <c r="D209" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5069.5660195220526</v>
       </c>
     </row>
@@ -5325,11 +5745,11 @@
         <v>187</v>
       </c>
       <c r="C210" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3054.9984323857789</v>
       </c>
       <c r="D210" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5052.477774716911</v>
       </c>
     </row>
@@ -5338,11 +5758,11 @@
         <v>188</v>
       </c>
       <c r="C211" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3072.1827985679488</v>
       </c>
       <c r="D211" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5035.2934085347415</v>
       </c>
     </row>
@@ -5351,11 +5771,11 @@
         <v>189</v>
       </c>
       <c r="C212" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3089.4638268098934</v>
       </c>
       <c r="D212" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5018.0123802927983</v>
       </c>
     </row>
@@ -5364,11 +5784,11 @@
         <v>190</v>
       </c>
       <c r="C213" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3106.8420608356992</v>
       </c>
       <c r="D213" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5000.6341462669916</v>
       </c>
     </row>
@@ -5377,11 +5797,11 @@
         <v>191</v>
       </c>
       <c r="C214" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3124.3180474279006</v>
       </c>
       <c r="D214" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4983.1581596747901</v>
       </c>
     </row>
@@ -5390,11 +5810,11 @@
         <v>192</v>
       </c>
       <c r="C215" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3141.8923364446819</v>
       </c>
       <c r="D215" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4965.5838706580089</v>
       </c>
     </row>
@@ -5403,11 +5823,11 @@
         <v>193</v>
       </c>
       <c r="C216" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3159.5654808371833</v>
       </c>
       <c r="D216" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4947.910726265507</v>
       </c>
     </row>
@@ -5416,11 +5836,11 @@
         <v>194</v>
       </c>
       <c r="C217" s="6">
-        <f t="shared" ref="C217:C280" si="20">PPMT($C$5/12,B217,$C$6*12,(1-$C$4)*-$C$3)</f>
+        <f t="shared" ref="C217:C280" si="23">PPMT($C$5/12,B217,$C$6*12,(1-$C$4)*-$C$3)</f>
         <v>3177.338036666893</v>
       </c>
       <c r="D217" s="6">
-        <f t="shared" ref="D217:D280" si="21">IPMT($C$5/12,B217,$C$6*12,(1-$C$4)*-$C$3)</f>
+        <f t="shared" ref="D217:D280" si="24">IPMT($C$5/12,B217,$C$6*12,(1-$C$4)*-$C$3)</f>
         <v>4930.1381704357982</v>
       </c>
     </row>
@@ -5429,11 +5849,11 @@
         <v>195</v>
       </c>
       <c r="C218" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3195.2105631231439</v>
       </c>
       <c r="D218" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4912.2656439795473</v>
       </c>
     </row>
@@ -5442,11 +5862,11 @@
         <v>196</v>
       </c>
       <c r="C219" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3213.1836225407114</v>
       </c>
       <c r="D219" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4894.2925845619793</v>
       </c>
     </row>
@@ -5455,11 +5875,11 @@
         <v>197</v>
       </c>
       <c r="C220" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3231.2577804175035</v>
       </c>
       <c r="D220" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4876.2184266851873</v>
       </c>
     </row>
@@ -5468,11 +5888,11 @@
         <v>198</v>
       </c>
       <c r="C221" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3249.4336054323517</v>
       </c>
       <c r="D221" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4858.0426016703395</v>
       </c>
     </row>
@@ -5481,11 +5901,11 @@
         <v>199</v>
       </c>
       <c r="C222" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3267.7116694629085</v>
       </c>
       <c r="D222" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4839.7645376397813</v>
       </c>
     </row>
@@ -5494,11 +5914,11 @@
         <v>200</v>
       </c>
       <c r="C223" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3286.0925476036373</v>
       </c>
       <c r="D223" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4821.3836594990516</v>
       </c>
     </row>
@@ -5507,11 +5927,11 @@
         <v>201</v>
       </c>
       <c r="C224" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3304.5768181839076</v>
       </c>
       <c r="D224" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4802.8993889187823</v>
       </c>
     </row>
@@ -5520,11 +5940,11 @@
         <v>202</v>
       </c>
       <c r="C225" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3323.1650627861923</v>
       </c>
       <c r="D225" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4784.3111443164989</v>
       </c>
     </row>
@@ -5533,11 +5953,11 @@
         <v>203</v>
       </c>
       <c r="C226" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3341.8578662643645</v>
       </c>
       <c r="D226" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4765.6183408383258</v>
       </c>
     </row>
@@ -5546,11 +5966,11 @@
         <v>204</v>
       </c>
       <c r="C227" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3360.655816762101</v>
       </c>
       <c r="D227" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4746.8203903405883</v>
       </c>
     </row>
@@ -5559,11 +5979,11 @@
         <v>205</v>
       </c>
       <c r="C228" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3379.5595057313881</v>
       </c>
       <c r="D228" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4727.9167013713013</v>
       </c>
     </row>
@@ -5572,11 +5992,11 @@
         <v>206</v>
       </c>
       <c r="C229" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3398.5695279511274</v>
       </c>
       <c r="D229" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4708.9066791515625</v>
       </c>
     </row>
@@ -5585,11 +6005,11 @@
         <v>207</v>
       </c>
       <c r="C230" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3417.6864815458521</v>
       </c>
       <c r="D230" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4689.7897255568378</v>
       </c>
     </row>
@@ -5598,11 +6018,11 @@
         <v>208</v>
       </c>
       <c r="C231" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3436.9109680045481</v>
       </c>
       <c r="D231" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4670.5652390981413</v>
       </c>
     </row>
@@ -5611,11 +6031,11 @@
         <v>209</v>
       </c>
       <c r="C232" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3456.2435921995734</v>
       </c>
       <c r="D232" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4651.2326149031169</v>
       </c>
     </row>
@@ -5624,11 +6044,11 @@
         <v>210</v>
       </c>
       <c r="C233" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3475.6849624056963</v>
       </c>
       <c r="D233" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4631.791244696994</v>
       </c>
     </row>
@@ -5637,11 +6057,11 @@
         <v>211</v>
       </c>
       <c r="C234" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3495.2356903192285</v>
       </c>
       <c r="D234" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4612.2405167834613</v>
       </c>
     </row>
@@ -5650,11 +6070,11 @@
         <v>212</v>
       </c>
       <c r="C235" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3514.8963910772741</v>
       </c>
       <c r="D235" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4592.5798160254162</v>
       </c>
     </row>
@@ -5663,11 +6083,11 @@
         <v>213</v>
       </c>
       <c r="C236" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3534.6676832770841</v>
       </c>
       <c r="D236" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4572.8085238256072</v>
       </c>
     </row>
@@ -5676,11 +6096,11 @@
         <v>214</v>
       </c>
       <c r="C237" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3554.5501889955167</v>
       </c>
       <c r="D237" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4552.9260181071741</v>
       </c>
     </row>
@@ -5689,11 +6109,11 @@
         <v>215</v>
       </c>
       <c r="C238" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3574.5445338086165</v>
       </c>
       <c r="D238" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4532.9316732940742</v>
       </c>
     </row>
@@ -5702,11 +6122,11 @@
         <v>216</v>
       </c>
       <c r="C239" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3594.6513468112908</v>
       </c>
       <c r="D239" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4512.8248602914</v>
       </c>
     </row>
@@ -5715,11 +6135,11 @@
         <v>217</v>
       </c>
       <c r="C240" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3614.8712606371037</v>
       </c>
       <c r="D240" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4492.6049464655871</v>
       </c>
     </row>
@@ -5728,11 +6148,11 @@
         <v>218</v>
       </c>
       <c r="C241" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3635.2049114781876</v>
       </c>
       <c r="D241" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4472.2712956245023</v>
       </c>
     </row>
@@ -5741,11 +6161,11 @@
         <v>219</v>
       </c>
       <c r="C242" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3655.6529391052527</v>
       </c>
       <c r="D242" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4451.8232679974371</v>
       </c>
     </row>
@@ -5754,11 +6174,11 @@
         <v>220</v>
       </c>
       <c r="C243" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3676.2159868877193</v>
       </c>
       <c r="D243" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4431.2602202149701</v>
       </c>
     </row>
@@ -5767,11 +6187,11 @@
         <v>221</v>
       </c>
       <c r="C244" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3696.8947018139625</v>
       </c>
       <c r="D244" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4410.5815052887274</v>
       </c>
     </row>
@@ -5780,11 +6200,11 @@
         <v>222</v>
       </c>
       <c r="C245" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3717.6897345116668</v>
       </c>
       <c r="D245" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4389.786472591024</v>
       </c>
     </row>
@@ -5793,11 +6213,11 @@
         <v>223</v>
       </c>
       <c r="C246" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3738.6017392682948</v>
       </c>
       <c r="D246" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4368.8744678343955</v>
       </c>
     </row>
@@ -5806,11 +6226,11 @@
         <v>224</v>
       </c>
       <c r="C247" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3759.6313740516789</v>
       </c>
       <c r="D247" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4347.8448330510118</v>
       </c>
     </row>
@@ -5819,11 +6239,11 @@
         <v>225</v>
       </c>
       <c r="C248" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3780.7793005307194</v>
       </c>
       <c r="D248" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4326.6969065719713</v>
       </c>
     </row>
@@ -5832,11 +6252,11 @@
         <v>226</v>
       </c>
       <c r="C249" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3802.0461840962043</v>
       </c>
       <c r="D249" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4305.4300230064855</v>
       </c>
     </row>
@@ -5845,11 +6265,11 @@
         <v>227</v>
       </c>
       <c r="C250" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3823.4326938817458</v>
       </c>
       <c r="D250" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4284.043513220945</v>
       </c>
     </row>
@@ -5858,11 +6278,11 @@
         <v>228</v>
       </c>
       <c r="C251" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3844.9395027848304</v>
       </c>
       <c r="D251" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4262.5367043178594</v>
       </c>
     </row>
@@ -5871,11 +6291,11 @@
         <v>229</v>
       </c>
       <c r="C252" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3866.5672874879951</v>
       </c>
       <c r="D252" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4240.9089196146942</v>
       </c>
     </row>
@@ -5884,11 +6304,11 @@
         <v>230</v>
       </c>
       <c r="C253" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3888.3167284801152</v>
       </c>
       <c r="D253" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4219.159478622576</v>
       </c>
     </row>
@@ -5897,11 +6317,11 @@
         <v>231</v>
       </c>
       <c r="C254" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3910.1885100778159</v>
       </c>
       <c r="D254" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4197.2876970248744</v>
       </c>
     </row>
@@ -5910,11 +6330,11 @@
         <v>232</v>
       </c>
       <c r="C255" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3932.183320447004</v>
       </c>
       <c r="D255" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4175.2928866556867</v>
       </c>
     </row>
@@ -5923,11 +6343,11 @@
         <v>233</v>
       </c>
       <c r="C256" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3954.3018516245179</v>
       </c>
       <c r="D256" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4153.1743554781715</v>
       </c>
     </row>
@@ -5936,11 +6356,11 @@
         <v>234</v>
       </c>
       <c r="C257" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3976.5447995399059</v>
       </c>
       <c r="D257" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4130.9314075627854</v>
       </c>
     </row>
@@ -5949,11 +6369,11 @@
         <v>235</v>
       </c>
       <c r="C258" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3998.9128640373174</v>
       </c>
       <c r="D258" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4108.5633430653725</v>
       </c>
     </row>
@@ -5962,11 +6382,11 @@
         <v>236</v>
       </c>
       <c r="C259" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4021.4067488975284</v>
       </c>
       <c r="D259" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4086.0694582051628</v>
       </c>
     </row>
@@ -5975,11 +6395,11 @@
         <v>237</v>
       </c>
       <c r="C260" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4044.0271618600768</v>
       </c>
       <c r="D260" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4063.4490452426144</v>
       </c>
     </row>
@@ -5988,11 +6408,11 @@
         <v>238</v>
       </c>
       <c r="C261" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4066.7748146455392</v>
       </c>
       <c r="D261" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4040.7013924571511</v>
       </c>
     </row>
@@ -6001,11 +6421,11 @@
         <v>239</v>
       </c>
       <c r="C262" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4089.6504229779202</v>
       </c>
       <c r="D262" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4017.8257841247705</v>
       </c>
     </row>
@@ -6014,11 +6434,11 @@
         <v>240</v>
       </c>
       <c r="C263" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4112.6547066071707</v>
       </c>
       <c r="D263" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3994.8215004955196</v>
       </c>
     </row>
@@ -6027,11 +6447,11 @@
         <v>241</v>
       </c>
       <c r="C264" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4135.7883893318367</v>
       </c>
       <c r="D264" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3971.6878177708536</v>
       </c>
     </row>
@@ -6040,11 +6460,11 @@
         <v>242</v>
       </c>
       <c r="C265" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4159.0521990218276</v>
       </c>
       <c r="D265" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3948.4240080808613</v>
       </c>
     </row>
@@ -6053,11 +6473,11 @@
         <v>243</v>
       </c>
       <c r="C266" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4182.4468676413262</v>
       </c>
       <c r="D266" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3925.0293394613641</v>
       </c>
     </row>
@@ -6066,11 +6486,11 @@
         <v>244</v>
       </c>
       <c r="C267" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4205.9731312718086</v>
       </c>
       <c r="D267" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3901.5030758308822</v>
       </c>
     </row>
@@ -6079,11 +6499,11 @@
         <v>245</v>
       </c>
       <c r="C268" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4229.6317301352119</v>
       </c>
       <c r="D268" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3877.8444769674775</v>
       </c>
     </row>
@@ -6092,11 +6512,11 @@
         <v>246</v>
       </c>
       <c r="C269" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4253.4234086172228</v>
       </c>
       <c r="D269" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3854.0527984854666</v>
       </c>
     </row>
@@ -6105,11 +6525,11 @@
         <v>247</v>
       </c>
       <c r="C270" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4277.348915290695</v>
       </c>
       <c r="D270" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3830.1272918119957</v>
       </c>
     </row>
@@ -6118,11 +6538,11 @@
         <v>248</v>
       </c>
       <c r="C271" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4301.4090029392055</v>
       </c>
       <c r="D271" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3806.0672041634848</v>
       </c>
     </row>
@@ -6131,11 +6551,11 @@
         <v>249</v>
       </c>
       <c r="C272" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4325.6044285807375</v>
       </c>
       <c r="D272" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3781.8717785219524</v>
       </c>
     </row>
@@ -6144,11 +6564,11 @@
         <v>250</v>
       </c>
       <c r="C273" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4349.9359534915047</v>
       </c>
       <c r="D273" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3757.540253611186</v>
       </c>
     </row>
@@ -6157,11 +6577,11 @@
         <v>251</v>
       </c>
       <c r="C274" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4374.404343229894</v>
       </c>
       <c r="D274" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3733.0718638727958</v>
       </c>
     </row>
@@ -6170,11 +6590,11 @@
         <v>252</v>
       </c>
       <c r="C275" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4399.0103676605622</v>
       </c>
       <c r="D275" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3708.4658394421276</v>
       </c>
     </row>
@@ -6183,11 +6603,11 @@
         <v>253</v>
       </c>
       <c r="C276" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4423.7548009786533</v>
       </c>
       <c r="D276" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3683.7214061240379</v>
       </c>
     </row>
@@ -6196,11 +6616,11 @@
         <v>254</v>
       </c>
       <c r="C277" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4448.6384217341583</v>
       </c>
       <c r="D277" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3658.837785368532</v>
       </c>
     </row>
@@ -6209,11 +6629,11 @@
         <v>255</v>
       </c>
       <c r="C278" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4473.6620128564127</v>
       </c>
       <c r="D278" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3633.8141942462776</v>
       </c>
     </row>
@@ -6222,11 +6642,11 @@
         <v>256</v>
       </c>
       <c r="C279" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4498.8263616787299</v>
       </c>
       <c r="D279" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3608.64984542396</v>
       </c>
     </row>
@@ -6235,11 +6655,11 @@
         <v>257</v>
       </c>
       <c r="C280" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4524.1322599631731</v>
       </c>
       <c r="D280" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3583.3439471395172</v>
       </c>
     </row>
@@ -6248,11 +6668,11 @@
         <v>258</v>
       </c>
       <c r="C281" s="6">
-        <f t="shared" ref="C281:C344" si="22">PPMT($C$5/12,B281,$C$6*12,(1-$C$4)*-$C$3)</f>
+        <f t="shared" ref="C281:C344" si="25">PPMT($C$5/12,B281,$C$6*12,(1-$C$4)*-$C$3)</f>
         <v>4549.5805039254656</v>
       </c>
       <c r="D281" s="6">
-        <f t="shared" ref="D281:D344" si="23">IPMT($C$5/12,B281,$C$6*12,(1-$C$4)*-$C$3)</f>
+        <f t="shared" ref="D281:D344" si="26">IPMT($C$5/12,B281,$C$6*12,(1-$C$4)*-$C$3)</f>
         <v>3557.8957031772238</v>
       </c>
     </row>
@@ -6261,11 +6681,11 @@
         <v>259</v>
       </c>
       <c r="C282" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4575.1718942600473</v>
       </c>
       <c r="D282" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3532.3043128426439</v>
       </c>
     </row>
@@ -6274,11 +6694,11 @@
         <v>260</v>
       </c>
       <c r="C283" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4600.9072361652597</v>
       </c>
       <c r="D283" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3506.568970937431</v>
       </c>
     </row>
@@ -6287,11 +6707,11 @@
         <v>261</v>
       </c>
       <c r="C284" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4626.7873393686887</v>
       </c>
       <c r="D284" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3480.6888677340016</v>
       </c>
     </row>
@@ -6300,11 +6720,11 @@
         <v>262</v>
       </c>
       <c r="C285" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4652.8130181526385</v>
       </c>
       <c r="D285" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3454.6631889500522</v>
       </c>
     </row>
@@ -6313,11 +6733,11 @@
         <v>263</v>
       </c>
       <c r="C286" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4678.9850913797463</v>
       </c>
       <c r="D286" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3428.4911157229435</v>
       </c>
     </row>
@@ -6326,11 +6746,11 @@
         <v>264</v>
       </c>
       <c r="C287" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4705.3043825187569</v>
       </c>
       <c r="D287" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3402.1718245839329</v>
       </c>
     </row>
@@ -6339,11 +6759,11 @@
         <v>265</v>
       </c>
       <c r="C288" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4731.7717196704252</v>
       </c>
       <c r="D288" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3375.7044874322651</v>
       </c>
     </row>
@@ -6352,11 +6772,11 @@
         <v>266</v>
       </c>
       <c r="C289" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4758.3879355935715</v>
       </c>
       <c r="D289" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3349.0882715091184</v>
       </c>
     </row>
@@ -6365,11 +6785,11 @@
         <v>267</v>
       </c>
       <c r="C290" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4785.1538677312856</v>
       </c>
       <c r="D290" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3322.3223393714043</v>
       </c>
     </row>
@@ -6378,11 +6798,11 @@
         <v>268</v>
       </c>
       <c r="C291" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4812.0703582372744</v>
       </c>
       <c r="D291" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3295.4058488654164</v>
       </c>
     </row>
@@ -6391,11 +6811,11 @@
         <v>269</v>
       </c>
       <c r="C292" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4839.1382540023587</v>
       </c>
       <c r="D292" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3268.3379531003316</v>
       </c>
     </row>
@@ -6404,11 +6824,11 @@
         <v>270</v>
       </c>
       <c r="C293" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4866.3584066811218</v>
       </c>
       <c r="D293" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3241.1178004215685</v>
       </c>
     </row>
@@ -6417,11 +6837,11 @@
         <v>271</v>
       </c>
       <c r="C294" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4893.7316727187035</v>
       </c>
       <c r="D294" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3213.7445343839868</v>
       </c>
     </row>
@@ -6430,11 +6850,11 @@
         <v>272</v>
       </c>
       <c r="C295" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4921.2589133777456</v>
       </c>
       <c r="D295" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3186.2172937249438</v>
       </c>
     </row>
@@ -6443,11 +6863,11 @@
         <v>273</v>
       </c>
       <c r="C296" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4948.9409947654958</v>
       </c>
       <c r="D296" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3158.5352123371945</v>
       </c>
     </row>
@@ -6456,11 +6876,11 @@
         <v>274</v>
       </c>
       <c r="C297" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4976.7787878610516</v>
       </c>
       <c r="D297" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3130.6974192416387</v>
       </c>
     </row>
@@ -6469,11 +6889,11 @@
         <v>275</v>
       </c>
       <c r="C298" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5004.7731685427698</v>
       </c>
       <c r="D298" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3102.7030385599205</v>
       </c>
     </row>
@@ -6482,11 +6902,11 @@
         <v>276</v>
       </c>
       <c r="C299" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5032.925017615823</v>
       </c>
       <c r="D299" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3074.5511894868669</v>
       </c>
     </row>
@@ -6495,11 +6915,11 @@
         <v>277</v>
       </c>
       <c r="C300" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5061.2352208399116</v>
       </c>
       <c r="D300" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3046.2409862627778</v>
       </c>
     </row>
@@ -6508,11 +6928,11 @@
         <v>278</v>
       </c>
       <c r="C301" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5089.7046689571371</v>
       </c>
       <c r="D301" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3017.7715381455537</v>
       </c>
     </row>
@@ -6521,11 +6941,11 @@
         <v>279</v>
       </c>
       <c r="C302" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5118.3342577200201</v>
       </c>
       <c r="D302" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2989.1419493826697</v>
       </c>
     </row>
@@ -6534,11 +6954,11 @@
         <v>280</v>
       </c>
       <c r="C303" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5147.1248879196955</v>
       </c>
       <c r="D303" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2960.3513191829948</v>
       </c>
     </row>
@@ -6547,11 +6967,11 @@
         <v>281</v>
       </c>
       <c r="C304" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5176.0774654142442</v>
       </c>
       <c r="D304" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2931.3987416884461</v>
       </c>
     </row>
@@ -6560,11 +6980,11 @@
         <v>282</v>
       </c>
       <c r="C305" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5205.1929011571992</v>
       </c>
       <c r="D305" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2902.2833059454906</v>
       </c>
     </row>
@@ -6573,11 +6993,11 @@
         <v>283</v>
       </c>
       <c r="C306" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5234.4721112262087</v>
       </c>
       <c r="D306" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2873.0040958764816</v>
       </c>
     </row>
@@ -6586,11 +7006,11 @@
         <v>284</v>
       </c>
       <c r="C307" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5263.9160168518556</v>
       </c>
       <c r="D307" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2843.5601902508342</v>
       </c>
     </row>
@@ -6599,11 +7019,11 @@
         <v>285</v>
       </c>
       <c r="C308" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5293.5255444466475</v>
       </c>
       <c r="D308" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2813.9506626560428</v>
       </c>
     </row>
@@ -6612,11 +7032,11 @@
         <v>286</v>
       </c>
       <c r="C309" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5323.3016256341598</v>
       </c>
       <c r="D309" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2784.1745814685301</v>
       </c>
     </row>
@@ -6625,11 +7045,11 @@
         <v>287</v>
       </c>
       <c r="C310" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5353.245197278352</v>
       </c>
       <c r="D310" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2754.2310098243379</v>
       </c>
     </row>
@@ -6638,11 +7058,11 @@
         <v>288</v>
       </c>
       <c r="C311" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5383.3572015130421</v>
       </c>
       <c r="D311" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2724.1190055896482</v>
       </c>
     </row>
@@ -6651,11 +7071,11 @@
         <v>289</v>
       </c>
       <c r="C312" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5413.6385857715541</v>
       </c>
       <c r="D312" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2693.8376213311367</v>
       </c>
     </row>
@@ -6664,11 +7084,11 @@
         <v>290</v>
       </c>
       <c r="C313" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5444.0903028165185</v>
       </c>
       <c r="D313" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2663.3859042861718</v>
       </c>
     </row>
@@ -6677,11 +7097,11 @@
         <v>291</v>
       </c>
       <c r="C314" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5474.713310769861</v>
       </c>
       <c r="D314" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2632.7628963328289</v>
       </c>
     </row>
@@ -6690,11 +7110,11 @@
         <v>292</v>
       </c>
       <c r="C315" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5505.5085731429417</v>
       </c>
       <c r="D315" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2601.9676339597481</v>
       </c>
     </row>
@@ -6703,11 +7123,11 @@
         <v>293</v>
       </c>
       <c r="C316" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5536.4770588668707</v>
       </c>
       <c r="D316" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2570.9991482358196</v>
       </c>
     </row>
@@ -6716,11 +7136,11 @@
         <v>294</v>
       </c>
       <c r="C317" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5567.6197423229969</v>
       </c>
       <c r="D317" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2539.8564647796934</v>
       </c>
     </row>
@@ -6729,11 +7149,11 @@
         <v>295</v>
       </c>
       <c r="C318" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5598.9376033735643</v>
       </c>
       <c r="D318" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2508.5386037291264</v>
       </c>
     </row>
@@ -6742,11 +7162,11 @@
         <v>296</v>
       </c>
       <c r="C319" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5630.4316273925406</v>
       </c>
       <c r="D319" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2477.0445797101497</v>
       </c>
     </row>
@@ -6755,11 +7175,11 @@
         <v>297</v>
       </c>
       <c r="C320" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5662.102805296623</v>
       </c>
       <c r="D320" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2445.3734018060668</v>
       </c>
     </row>
@@ -6768,11 +7188,11 @@
         <v>298</v>
       </c>
       <c r="C321" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5693.9521335764175</v>
       </c>
       <c r="D321" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2413.5240735262737</v>
       </c>
     </row>
@@ -6781,11 +7201,11 @@
         <v>299</v>
       </c>
       <c r="C322" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5725.9806143277847</v>
       </c>
       <c r="D322" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2381.4955927749061</v>
       </c>
     </row>
@@ -6794,11 +7214,11 @@
         <v>300</v>
       </c>
       <c r="C323" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5758.1892552833779</v>
       </c>
       <c r="D323" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2349.286951819312</v>
       </c>
     </row>
@@ -6807,11 +7227,11 @@
         <v>301</v>
       </c>
       <c r="C324" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5790.579069844347</v>
       </c>
       <c r="D324" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2316.8971372583433</v>
       </c>
     </row>
@@ -6820,11 +7240,11 @@
         <v>302</v>
       </c>
       <c r="C325" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5823.1510771122221</v>
       </c>
       <c r="D325" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2284.3251299904687</v>
       </c>
     </row>
@@ -6833,11 +7253,11 @@
         <v>303</v>
       </c>
       <c r="C326" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5855.906301920978</v>
       </c>
       <c r="D326" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2251.5699051817128</v>
       </c>
     </row>
@@ -6846,11 +7266,11 @@
         <v>304</v>
       </c>
       <c r="C327" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5888.8457748692836</v>
       </c>
       <c r="D327" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2218.6304322334072</v>
       </c>
     </row>
@@ -6859,11 +7279,11 @@
         <v>305</v>
       </c>
       <c r="C328" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5921.9705323529233</v>
       </c>
       <c r="D328" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2185.505674749767</v>
       </c>
     </row>
@@ -6872,11 +7292,11 @@
         <v>306</v>
       </c>
       <c r="C329" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5955.2816165974073</v>
       </c>
       <c r="D329" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2152.1945905052821</v>
       </c>
     </row>
@@ -6885,11 +7305,11 @@
         <v>307</v>
       </c>
       <c r="C330" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5988.7800756907682</v>
       </c>
       <c r="D330" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2118.6961314119217</v>
       </c>
     </row>
@@ -6898,11 +7318,11 @@
         <v>308</v>
       </c>
       <c r="C331" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6022.4669636165281</v>
       </c>
       <c r="D331" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2085.0092434861608</v>
       </c>
     </row>
@@ -6911,11 +7331,11 @@
         <v>309</v>
       </c>
       <c r="C332" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6056.3433402868723</v>
       </c>
       <c r="D332" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2051.1328668158176</v>
       </c>
     </row>
@@ -6924,11 +7344,11 @@
         <v>310</v>
       </c>
       <c r="C333" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6090.4102715759855</v>
       </c>
       <c r="D333" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2017.0659355267044</v>
       </c>
     </row>
@@ -6937,11 +7357,11 @@
         <v>311</v>
       </c>
       <c r="C334" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6124.6688293536008</v>
       </c>
       <c r="D334" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1982.8073777490897</v>
       </c>
     </row>
@@ -6950,11 +7370,11 @@
         <v>312</v>
       </c>
       <c r="C335" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6159.1200915187146</v>
       </c>
       <c r="D335" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1948.3561155839755</v>
       </c>
     </row>
@@ -6963,11 +7383,11 @@
         <v>313</v>
       </c>
       <c r="C336" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6193.7651420335069</v>
       </c>
       <c r="D336" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1913.7110650691827</v>
       </c>
     </row>
@@ -6976,11 +7396,11 @@
         <v>314</v>
       </c>
       <c r="C337" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6228.6050709574456</v>
       </c>
       <c r="D337" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1878.871136145244</v>
       </c>
     </row>
@@ -6989,11 +7409,11 @@
         <v>315</v>
       </c>
       <c r="C338" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6263.640974481581</v>
       </c>
       <c r="D338" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1843.8352326211086</v>
       </c>
     </row>
@@ -7002,11 +7422,11 @@
         <v>316</v>
       </c>
       <c r="C339" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6298.87395496304</v>
       </c>
       <c r="D339" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1808.6022521396496</v>
       </c>
     </row>
@@ -7015,11 +7435,11 @@
         <v>317</v>
       </c>
       <c r="C340" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6334.3051209597079</v>
       </c>
       <c r="D340" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1773.1710861429824</v>
       </c>
     </row>
@@ -7028,11 +7448,11 @@
         <v>318</v>
       </c>
       <c r="C341" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6369.9355872651058</v>
       </c>
       <c r="D341" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1737.5406198375845</v>
       </c>
     </row>
@@ -7041,11 +7461,11 @@
         <v>319</v>
       </c>
       <c r="C342" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6405.7664749434725</v>
       </c>
       <c r="D342" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1701.7097321592178</v>
       </c>
     </row>
@@ -7054,11 +7474,11 @@
         <v>320</v>
       </c>
       <c r="C343" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6441.7989113650283</v>
       </c>
       <c r="D343" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1665.6772957376611</v>
       </c>
     </row>
@@ -7067,11 +7487,11 @@
         <v>321</v>
       </c>
       <c r="C344" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6478.0340302414579</v>
       </c>
       <c r="D344" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1629.4421768612326</v>
       </c>
     </row>
@@ -7080,11 +7500,11 @@
         <v>322</v>
       </c>
       <c r="C345" s="6">
-        <f t="shared" ref="C345:C383" si="24">PPMT($C$5/12,B345,$C$6*12,(1-$C$4)*-$C$3)</f>
+        <f t="shared" ref="C345:C383" si="27">PPMT($C$5/12,B345,$C$6*12,(1-$C$4)*-$C$3)</f>
         <v>6514.4729716615657</v>
       </c>
       <c r="D345" s="6">
-        <f t="shared" ref="D345:D383" si="25">IPMT($C$5/12,B345,$C$6*12,(1-$C$4)*-$C$3)</f>
+        <f t="shared" ref="D345:D383" si="28">IPMT($C$5/12,B345,$C$6*12,(1-$C$4)*-$C$3)</f>
         <v>1593.0032354411246</v>
       </c>
     </row>
@@ -7093,11 +7513,11 @@
         <v>323</v>
       </c>
       <c r="C346" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6551.1168821271622</v>
       </c>
       <c r="D346" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1556.3593249755286</v>
       </c>
     </row>
@@ -7106,11 +7526,11 @@
         <v>324</v>
       </c>
       <c r="C347" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6587.9669145891276</v>
       </c>
       <c r="D347" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1519.509292513563</v>
       </c>
     </row>
@@ -7119,11 +7539,11 @@
         <v>325</v>
       </c>
       <c r="C348" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6625.0242284836913</v>
       </c>
       <c r="D348" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1482.451978618999</v>
       </c>
     </row>
@@ -7132,11 +7552,11 @@
         <v>326</v>
       </c>
       <c r="C349" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6662.2899897689131</v>
       </c>
       <c r="D349" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1445.1862173337784</v>
       </c>
     </row>
@@ -7145,11 +7565,11 @@
         <v>327</v>
       </c>
       <c r="C350" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6699.7653709613624</v>
       </c>
       <c r="D350" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1407.7108361413284</v>
       </c>
     </row>
@@ -7158,11 +7578,11 @@
         <v>328</v>
       </c>
       <c r="C351" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6737.4515511730197</v>
       </c>
       <c r="D351" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1370.0246559296706</v>
       </c>
     </row>
@@ -7171,11 +7591,11 @@
         <v>329</v>
       </c>
       <c r="C352" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6775.3497161483683</v>
       </c>
       <c r="D352" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1332.1264909543222</v>
       </c>
     </row>
@@ -7184,11 +7604,11 @@
         <v>330</v>
       </c>
       <c r="C353" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6813.4610583017029</v>
       </c>
       <c r="D353" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1294.0151488009876</v>
       </c>
     </row>
@@ -7197,11 +7617,11 @@
         <v>331</v>
       </c>
       <c r="C354" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6851.7867767546495</v>
       </c>
       <c r="D354" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1255.6894303480403</v>
       </c>
     </row>
@@ -7210,11 +7630,11 @@
         <v>332</v>
       </c>
       <c r="C355" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6890.3280773738934</v>
       </c>
       <c r="D355" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1217.1481297287955</v>
       </c>
     </row>
@@ -7223,11 +7643,11 @@
         <v>333</v>
       </c>
       <c r="C356" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6929.0861728091222</v>
       </c>
       <c r="D356" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1178.3900342935676</v>
       </c>
     </row>
@@ -7236,11 +7656,11 @@
         <v>334</v>
       </c>
       <c r="C357" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6968.0622825311739</v>
       </c>
       <c r="D357" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1139.4139245715162</v>
       </c>
     </row>
@@ -7249,11 +7669,11 @@
         <v>335</v>
       </c>
       <c r="C358" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7007.2576328704126</v>
       </c>
       <c r="D358" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1100.2185742322783</v>
       </c>
     </row>
@@ -7262,11 +7682,11 @@
         <v>336</v>
       </c>
       <c r="C359" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7046.6734570553072</v>
       </c>
       <c r="D359" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1060.8027500473822</v>
       </c>
     </row>
@@ -7275,11 +7695,11 @@
         <v>337</v>
       </c>
       <c r="C360" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7086.3109952512441</v>
       </c>
       <c r="D360" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1021.1652118514461</v>
       </c>
     </row>
@@ -7288,11 +7708,11 @@
         <v>338</v>
       </c>
       <c r="C361" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7126.1714945995318</v>
       </c>
       <c r="D361" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>981.30471250315793</v>
       </c>
     </row>
@@ -7301,11 +7721,11 @@
         <v>339</v>
       </c>
       <c r="C362" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7166.256209256655</v>
       </c>
       <c r="D362" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>941.21999784603565</v>
       </c>
     </row>
@@ -7314,11 +7734,11 @@
         <v>340</v>
       </c>
       <c r="C363" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7206.5664004337241</v>
       </c>
       <c r="D363" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>900.90980666896701</v>
       </c>
     </row>
@@ -7327,11 +7747,11 @@
         <v>341</v>
       </c>
       <c r="C364" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7247.1033364361638</v>
       </c>
       <c r="D364" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>860.37287066652721</v>
       </c>
     </row>
@@ -7340,11 +7760,11 @@
         <v>342</v>
       </c>
       <c r="C365" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7287.8682927036161</v>
       </c>
       <c r="D365" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>819.60791439907382</v>
       </c>
     </row>
@@ -7353,11 +7773,11 @@
         <v>343</v>
       </c>
       <c r="C366" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7328.8625518500749</v>
       </c>
       <c r="D366" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>778.61365525261579</v>
       </c>
     </row>
@@ -7366,11 +7786,11 @@
         <v>344</v>
       </c>
       <c r="C367" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7370.0874037042313</v>
       </c>
       <c r="D367" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>737.38880339845934</v>
       </c>
     </row>
@@ -7379,11 +7799,11 @@
         <v>345</v>
       </c>
       <c r="C368" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7411.5441453500671</v>
       </c>
       <c r="D368" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>695.93206175262299</v>
       </c>
     </row>
@@ -7392,11 +7812,11 @@
         <v>346</v>
       </c>
       <c r="C369" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7453.2340811676613</v>
       </c>
       <c r="D369" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>654.24212593502887</v>
       </c>
     </row>
@@ -7405,11 +7825,11 @@
         <v>347</v>
       </c>
       <c r="C370" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7495.1585228742297</v>
       </c>
       <c r="D370" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>612.31768422846062</v>
       </c>
     </row>
@@ -7418,11 +7838,11 @@
         <v>348</v>
       </c>
       <c r="C371" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7537.3187895653973</v>
       </c>
       <c r="D371" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>570.1574175372931</v>
       </c>
     </row>
@@ -7431,11 +7851,11 @@
         <v>349</v>
       </c>
       <c r="C372" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7579.7162077567027</v>
       </c>
       <c r="D372" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>527.75999934598781</v>
       </c>
     </row>
@@ -7444,11 +7864,11 @@
         <v>350</v>
       </c>
       <c r="C373" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7622.3521114253335</v>
       </c>
       <c r="D373" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>485.12409567735637</v>
       </c>
     </row>
@@ -7457,11 +7877,11 @@
         <v>351</v>
       </c>
       <c r="C374" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7665.2278420521006</v>
       </c>
       <c r="D374" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>442.2483650505888</v>
       </c>
     </row>
@@ -7470,11 +7890,11 @@
         <v>352</v>
       </c>
       <c r="C375" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7708.3447486636451</v>
       </c>
       <c r="D375" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>399.13145843904573</v>
       </c>
     </row>
@@ -7483,11 +7903,11 @@
         <v>353</v>
       </c>
       <c r="C376" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7751.7041878748778</v>
       </c>
       <c r="D376" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>355.77201922781285</v>
       </c>
     </row>
@@ -7496,11 +7916,11 @@
         <v>354</v>
       </c>
       <c r="C377" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7795.3075239316731</v>
       </c>
       <c r="D377" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>312.1686831710166</v>
       </c>
     </row>
@@ -7509,11 +7929,11 @@
         <v>355</v>
       </c>
       <c r="C378" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7839.1561287537897</v>
       </c>
       <c r="D378" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>268.32007834890095</v>
       </c>
     </row>
@@ -7522,11 +7942,11 @@
         <v>356</v>
       </c>
       <c r="C379" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7883.2513819780297</v>
       </c>
       <c r="D379" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>224.22482512466087</v>
       </c>
     </row>
@@ -7535,11 +7955,11 @@
         <v>357</v>
       </c>
       <c r="C380" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7927.594671001656</v>
       </c>
       <c r="D380" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>179.88153610103444</v>
       </c>
     </row>
@@ -7548,11 +7968,11 @@
         <v>358</v>
       </c>
       <c r="C381" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7972.187391026041</v>
       </c>
       <c r="D381" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>135.28881607665014</v>
       </c>
     </row>
@@ -7561,11 +7981,11 @@
         <v>359</v>
       </c>
       <c r="C382" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>8017.0309451005614</v>
       </c>
       <c r="D382" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>90.445262002128629</v>
       </c>
     </row>
@@ -7574,11 +7994,11 @@
         <v>360</v>
       </c>
       <c r="C383" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>8062.1267441667524</v>
       </c>
       <c r="D383" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>45.349462935937986</v>
       </c>
     </row>
